--- a/PSDh/2020.xlsx
+++ b/PSDh/2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dataprev\Dropbox\000_Monografia\Stochastic_Processes_PSD\PSDh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712D656-C128-4A85-8E91-3A90D91E34A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC40B6-E653-4699-B62C-33FC68520D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-8850" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="7">
   <si>
     <t>Hora</t>
   </si>
@@ -539,7 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -549,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -908,23 +905,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KK98"/>
+  <dimension ref="A1:LA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="KD94" workbookViewId="0">
+      <selection activeCell="KU119" sqref="KU119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="297" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="313" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>43831</v>
       </c>
       <c r="D1" s="2">
@@ -1809,8 +1806,56 @@
       <c r="KK1" s="2">
         <v>44125</v>
       </c>
+      <c r="KL1" s="2">
+        <v>44126</v>
+      </c>
+      <c r="KM1" s="2">
+        <v>44127</v>
+      </c>
+      <c r="KN1" s="2">
+        <v>44128</v>
+      </c>
+      <c r="KO1" s="2">
+        <v>44129</v>
+      </c>
+      <c r="KP1" s="2">
+        <v>44130</v>
+      </c>
+      <c r="KQ1" s="2">
+        <v>44131</v>
+      </c>
+      <c r="KR1" s="2">
+        <v>44132</v>
+      </c>
+      <c r="KS1" s="2">
+        <v>44133</v>
+      </c>
+      <c r="KT1" s="2">
+        <v>44134</v>
+      </c>
+      <c r="KU1" s="2">
+        <v>44135</v>
+      </c>
+      <c r="KV1" s="2">
+        <v>44136</v>
+      </c>
+      <c r="KW1" s="2">
+        <v>44137</v>
+      </c>
+      <c r="KX1" s="2">
+        <v>44138</v>
+      </c>
+      <c r="KY1" s="2">
+        <v>44139</v>
+      </c>
+      <c r="KZ1" s="2">
+        <v>44140</v>
+      </c>
+      <c r="LA1" s="2">
+        <v>44141</v>
+      </c>
     </row>
-    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2702,8 +2747,56 @@
       <c r="KK2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="KL2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KM2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KN2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KO2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KP2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KQ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KR2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KS2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KT2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KU2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KV2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KW2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KX2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KY2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="KZ2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="LA2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -3590,13 +3683,61 @@
         <v>300.82</v>
       </c>
       <c r="KJ3" s="3">
-        <v>311.39999999999998</v>
+        <v>327.45</v>
       </c>
       <c r="KK3" s="3">
-        <v>326.60000000000002</v>
+        <v>350.93</v>
+      </c>
+      <c r="KL3" s="3">
+        <v>337.32</v>
+      </c>
+      <c r="KM3" s="3">
+        <v>320.95</v>
+      </c>
+      <c r="KN3" s="3">
+        <v>329.45</v>
+      </c>
+      <c r="KO3" s="3">
+        <v>325.7</v>
+      </c>
+      <c r="KP3" s="3">
+        <v>329.73</v>
+      </c>
+      <c r="KQ3" s="3">
+        <v>336.79</v>
+      </c>
+      <c r="KR3" s="3">
+        <v>335.66</v>
+      </c>
+      <c r="KS3" s="3">
+        <v>351.07</v>
+      </c>
+      <c r="KT3" s="3">
+        <v>323.5</v>
+      </c>
+      <c r="KU3" s="3">
+        <v>371.75</v>
+      </c>
+      <c r="KV3" s="3">
+        <v>355.42</v>
+      </c>
+      <c r="KW3" s="3">
+        <v>365.25</v>
+      </c>
+      <c r="KX3" s="3">
+        <v>358.14</v>
+      </c>
+      <c r="KY3" s="3">
+        <v>363.63</v>
+      </c>
+      <c r="KZ3" s="3">
+        <v>363.89</v>
+      </c>
+      <c r="LA3" s="3">
+        <v>357.75</v>
       </c>
     </row>
-    <row r="4" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -4483,13 +4624,61 @@
         <v>300.82</v>
       </c>
       <c r="KJ4" s="3">
-        <v>311.39999999999998</v>
+        <v>327.45</v>
       </c>
       <c r="KK4" s="3">
-        <v>326.60000000000002</v>
+        <v>350.93</v>
+      </c>
+      <c r="KL4" s="3">
+        <v>337.32</v>
+      </c>
+      <c r="KM4" s="3">
+        <v>320.95</v>
+      </c>
+      <c r="KN4" s="3">
+        <v>329.45</v>
+      </c>
+      <c r="KO4" s="3">
+        <v>325.7</v>
+      </c>
+      <c r="KP4" s="3">
+        <v>329.73</v>
+      </c>
+      <c r="KQ4" s="3">
+        <v>336.79</v>
+      </c>
+      <c r="KR4" s="3">
+        <v>335.66</v>
+      </c>
+      <c r="KS4" s="3">
+        <v>351.07</v>
+      </c>
+      <c r="KT4" s="3">
+        <v>323.5</v>
+      </c>
+      <c r="KU4" s="3">
+        <v>371.75</v>
+      </c>
+      <c r="KV4" s="3">
+        <v>355.42</v>
+      </c>
+      <c r="KW4" s="3">
+        <v>365.25</v>
+      </c>
+      <c r="KX4" s="3">
+        <v>358.14</v>
+      </c>
+      <c r="KY4" s="3">
+        <v>363.63</v>
+      </c>
+      <c r="KZ4" s="3">
+        <v>363.89</v>
+      </c>
+      <c r="LA4" s="3">
+        <v>357.75</v>
       </c>
     </row>
-    <row r="5" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -5376,13 +5565,61 @@
         <v>195.04</v>
       </c>
       <c r="KJ5" s="3">
-        <v>183.16</v>
+        <v>186.84</v>
       </c>
       <c r="KK5" s="3">
-        <v>198.33</v>
+        <v>198.6</v>
+      </c>
+      <c r="KL5" s="3">
+        <v>246.51</v>
+      </c>
+      <c r="KM5" s="3">
+        <v>239.49</v>
+      </c>
+      <c r="KN5" s="3">
+        <v>245.65</v>
+      </c>
+      <c r="KO5" s="3">
+        <v>325.7</v>
+      </c>
+      <c r="KP5" s="3">
+        <v>329.73</v>
+      </c>
+      <c r="KQ5" s="3">
+        <v>336.79</v>
+      </c>
+      <c r="KR5" s="3">
+        <v>335.66</v>
+      </c>
+      <c r="KS5" s="3">
+        <v>351.07</v>
+      </c>
+      <c r="KT5" s="3">
+        <v>323.5</v>
+      </c>
+      <c r="KU5" s="3">
+        <v>371.75</v>
+      </c>
+      <c r="KV5" s="3">
+        <v>355.42</v>
+      </c>
+      <c r="KW5" s="3">
+        <v>365.25</v>
+      </c>
+      <c r="KX5" s="3">
+        <v>358.14</v>
+      </c>
+      <c r="KY5" s="3">
+        <v>363.63</v>
+      </c>
+      <c r="KZ5" s="3">
+        <v>363.89</v>
+      </c>
+      <c r="LA5" s="3">
+        <v>357.75</v>
       </c>
     </row>
-    <row r="6" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -6269,13 +6506,61 @@
         <v>300.82</v>
       </c>
       <c r="KJ6" s="3">
-        <v>311.39999999999998</v>
+        <v>327.45</v>
       </c>
       <c r="KK6" s="3">
-        <v>326.60000000000002</v>
+        <v>351.98</v>
+      </c>
+      <c r="KL6" s="3">
+        <v>337.32</v>
+      </c>
+      <c r="KM6" s="3">
+        <v>320.95</v>
+      </c>
+      <c r="KN6" s="3">
+        <v>329.45</v>
+      </c>
+      <c r="KO6" s="3">
+        <v>325.7</v>
+      </c>
+      <c r="KP6" s="3">
+        <v>329.73</v>
+      </c>
+      <c r="KQ6" s="3">
+        <v>336.79</v>
+      </c>
+      <c r="KR6" s="3">
+        <v>335.66</v>
+      </c>
+      <c r="KS6" s="3">
+        <v>351.07</v>
+      </c>
+      <c r="KT6" s="3">
+        <v>323.5</v>
+      </c>
+      <c r="KU6" s="3">
+        <v>371.75</v>
+      </c>
+      <c r="KV6" s="3">
+        <v>355.42</v>
+      </c>
+      <c r="KW6" s="3">
+        <v>365.25</v>
+      </c>
+      <c r="KX6" s="3">
+        <v>358.14</v>
+      </c>
+      <c r="KY6" s="3">
+        <v>363.63</v>
+      </c>
+      <c r="KZ6" s="3">
+        <v>363.89</v>
+      </c>
+      <c r="LA6" s="3">
+        <v>357.75</v>
       </c>
     </row>
-    <row r="7" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -7162,13 +7447,61 @@
         <v>295.16000000000003</v>
       </c>
       <c r="KJ7" s="3">
-        <v>301.79000000000002</v>
+        <v>309.93</v>
       </c>
       <c r="KK7" s="3">
-        <v>307.2</v>
+        <v>322.17</v>
+      </c>
+      <c r="KL7" s="3">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="KM7" s="3">
+        <v>306.62</v>
+      </c>
+      <c r="KN7" s="3">
+        <v>329.06</v>
+      </c>
+      <c r="KO7" s="3">
+        <v>307.05</v>
+      </c>
+      <c r="KP7" s="3">
+        <v>320.94</v>
+      </c>
+      <c r="KQ7" s="3">
+        <v>330.68</v>
+      </c>
+      <c r="KR7" s="3">
+        <v>325.58</v>
+      </c>
+      <c r="KS7" s="3">
+        <v>334.26</v>
+      </c>
+      <c r="KT7" s="3">
+        <v>311.39</v>
+      </c>
+      <c r="KU7" s="3">
+        <v>364.87</v>
+      </c>
+      <c r="KV7" s="3">
+        <v>324.61</v>
+      </c>
+      <c r="KW7" s="3">
+        <v>360.92</v>
+      </c>
+      <c r="KX7" s="3">
+        <v>341.9</v>
+      </c>
+      <c r="KY7" s="3">
+        <v>351.11</v>
+      </c>
+      <c r="KZ7" s="3">
+        <v>353.4</v>
+      </c>
+      <c r="LA7" s="3">
+        <v>351.98</v>
       </c>
     </row>
-    <row r="8" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -8055,13 +8388,61 @@
         <v>295.16000000000003</v>
       </c>
       <c r="KJ8" s="3">
-        <v>301.79000000000002</v>
+        <v>309.93</v>
       </c>
       <c r="KK8" s="3">
-        <v>307.2</v>
+        <v>322.17</v>
+      </c>
+      <c r="KL8" s="3">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="KM8" s="3">
+        <v>306.62</v>
+      </c>
+      <c r="KN8" s="3">
+        <v>329.06</v>
+      </c>
+      <c r="KO8" s="3">
+        <v>307.05</v>
+      </c>
+      <c r="KP8" s="3">
+        <v>320.94</v>
+      </c>
+      <c r="KQ8" s="3">
+        <v>330.68</v>
+      </c>
+      <c r="KR8" s="3">
+        <v>325.58</v>
+      </c>
+      <c r="KS8" s="3">
+        <v>334.26</v>
+      </c>
+      <c r="KT8" s="3">
+        <v>311.39</v>
+      </c>
+      <c r="KU8" s="3">
+        <v>364.87</v>
+      </c>
+      <c r="KV8" s="3">
+        <v>324.62</v>
+      </c>
+      <c r="KW8" s="3">
+        <v>360.92</v>
+      </c>
+      <c r="KX8" s="3">
+        <v>341.9</v>
+      </c>
+      <c r="KY8" s="3">
+        <v>351.11</v>
+      </c>
+      <c r="KZ8" s="3">
+        <v>353.4</v>
+      </c>
+      <c r="LA8" s="3">
+        <v>351.98</v>
       </c>
     </row>
-    <row r="9" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -8948,13 +9329,61 @@
         <v>178.79</v>
       </c>
       <c r="KJ9" s="3">
-        <v>178.6</v>
+        <v>170.3</v>
       </c>
       <c r="KK9" s="3">
-        <v>177.77</v>
+        <v>171.65</v>
+      </c>
+      <c r="KL9" s="3">
+        <v>232.36</v>
+      </c>
+      <c r="KM9" s="3">
+        <v>229</v>
+      </c>
+      <c r="KN9" s="3">
+        <v>194.55</v>
+      </c>
+      <c r="KO9" s="3">
+        <v>307.04000000000002</v>
+      </c>
+      <c r="KP9" s="3">
+        <v>320.94</v>
+      </c>
+      <c r="KQ9" s="3">
+        <v>330.68</v>
+      </c>
+      <c r="KR9" s="3">
+        <v>325.58</v>
+      </c>
+      <c r="KS9" s="3">
+        <v>334.26</v>
+      </c>
+      <c r="KT9" s="3">
+        <v>219.07</v>
+      </c>
+      <c r="KU9" s="3">
+        <v>364.87</v>
+      </c>
+      <c r="KV9" s="3">
+        <v>324.61</v>
+      </c>
+      <c r="KW9" s="3">
+        <v>360.92</v>
+      </c>
+      <c r="KX9" s="3">
+        <v>341.9</v>
+      </c>
+      <c r="KY9" s="3">
+        <v>351.11</v>
+      </c>
+      <c r="KZ9" s="3">
+        <v>353.4</v>
+      </c>
+      <c r="LA9" s="3">
+        <v>339.42</v>
       </c>
     </row>
-    <row r="10" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -9841,13 +10270,61 @@
         <v>297.77</v>
       </c>
       <c r="KJ10" s="3">
-        <v>305.33</v>
+        <v>322.99</v>
       </c>
       <c r="KK10" s="3">
-        <v>337.13</v>
+        <v>368.69</v>
+      </c>
+      <c r="KL10" s="3">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="KM10" s="3">
+        <v>306.62</v>
+      </c>
+      <c r="KN10" s="3">
+        <v>329.06</v>
+      </c>
+      <c r="KO10" s="3">
+        <v>307.05</v>
+      </c>
+      <c r="KP10" s="3">
+        <v>320.94</v>
+      </c>
+      <c r="KQ10" s="3">
+        <v>330.68</v>
+      </c>
+      <c r="KR10" s="3">
+        <v>325.58</v>
+      </c>
+      <c r="KS10" s="3">
+        <v>334.26</v>
+      </c>
+      <c r="KT10" s="3">
+        <v>311.39</v>
+      </c>
+      <c r="KU10" s="3">
+        <v>364.87</v>
+      </c>
+      <c r="KV10" s="3">
+        <v>324.61</v>
+      </c>
+      <c r="KW10" s="3">
+        <v>360.92</v>
+      </c>
+      <c r="KX10" s="3">
+        <v>341.9</v>
+      </c>
+      <c r="KY10" s="3">
+        <v>351.11</v>
+      </c>
+      <c r="KZ10" s="3">
+        <v>353.4</v>
+      </c>
+      <c r="LA10" s="3">
+        <v>351.98</v>
       </c>
     </row>
-    <row r="11" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -10734,13 +11211,61 @@
         <v>288.94</v>
       </c>
       <c r="KJ11" s="3">
-        <v>298.83</v>
+        <v>299.76</v>
       </c>
       <c r="KK11" s="3">
-        <v>303.8</v>
+        <v>312.79000000000002</v>
+      </c>
+      <c r="KL11" s="3">
+        <v>307.47000000000003</v>
+      </c>
+      <c r="KM11" s="3">
+        <v>300.14999999999998</v>
+      </c>
+      <c r="KN11" s="3">
+        <v>321.08</v>
+      </c>
+      <c r="KO11" s="3">
+        <v>300.38</v>
+      </c>
+      <c r="KP11" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KQ11" s="3">
+        <v>327.02</v>
+      </c>
+      <c r="KR11" s="3">
+        <v>325.3</v>
+      </c>
+      <c r="KS11" s="3">
+        <v>332.26</v>
+      </c>
+      <c r="KT11" s="3">
+        <v>303.44</v>
+      </c>
+      <c r="KU11" s="3">
+        <v>359.1</v>
+      </c>
+      <c r="KV11" s="3">
+        <v>292.45</v>
+      </c>
+      <c r="KW11" s="3">
+        <v>349.68</v>
+      </c>
+      <c r="KX11" s="3">
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KY11" s="3">
+        <v>316.77</v>
+      </c>
+      <c r="KZ11" s="3">
+        <v>348.42</v>
+      </c>
+      <c r="LA11" s="3">
+        <v>346.66</v>
       </c>
     </row>
-    <row r="12" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -11627,13 +12152,61 @@
         <v>288.94</v>
       </c>
       <c r="KJ12" s="3">
-        <v>298.83</v>
+        <v>299.76</v>
       </c>
       <c r="KK12" s="3">
-        <v>303.8</v>
+        <v>312.79000000000002</v>
+      </c>
+      <c r="KL12" s="3">
+        <v>307.47000000000003</v>
+      </c>
+      <c r="KM12" s="3">
+        <v>300.14999999999998</v>
+      </c>
+      <c r="KN12" s="3">
+        <v>321.08</v>
+      </c>
+      <c r="KO12" s="3">
+        <v>300.38</v>
+      </c>
+      <c r="KP12" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KQ12" s="3">
+        <v>327.02</v>
+      </c>
+      <c r="KR12" s="3">
+        <v>325.31</v>
+      </c>
+      <c r="KS12" s="3">
+        <v>332.26</v>
+      </c>
+      <c r="KT12" s="3">
+        <v>303.44</v>
+      </c>
+      <c r="KU12" s="3">
+        <v>359.1</v>
+      </c>
+      <c r="KV12" s="3">
+        <v>292.45</v>
+      </c>
+      <c r="KW12" s="3">
+        <v>349.68</v>
+      </c>
+      <c r="KX12" s="3">
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KY12" s="3">
+        <v>316.77</v>
+      </c>
+      <c r="KZ12" s="3">
+        <v>348.42</v>
+      </c>
+      <c r="LA12" s="3">
+        <v>346.66</v>
       </c>
     </row>
-    <row r="13" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -12520,13 +13093,61 @@
         <v>173.11</v>
       </c>
       <c r="KJ13" s="3">
-        <v>170.67</v>
+        <v>151.41999999999999</v>
       </c>
       <c r="KK13" s="3">
-        <v>173.06</v>
+        <v>152.16</v>
+      </c>
+      <c r="KL13" s="3">
+        <v>210.12</v>
+      </c>
+      <c r="KM13" s="3">
+        <v>219.43</v>
+      </c>
+      <c r="KN13" s="3">
+        <v>173.75</v>
+      </c>
+      <c r="KO13" s="3">
+        <v>267.66000000000003</v>
+      </c>
+      <c r="KP13" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KQ13" s="3">
+        <v>327.02</v>
+      </c>
+      <c r="KR13" s="3">
+        <v>325.3</v>
+      </c>
+      <c r="KS13" s="3">
+        <v>332.26</v>
+      </c>
+      <c r="KT13" s="3">
+        <v>195.89</v>
+      </c>
+      <c r="KU13" s="3">
+        <v>359.1</v>
+      </c>
+      <c r="KV13" s="3">
+        <v>292.45</v>
+      </c>
+      <c r="KW13" s="3">
+        <v>349.68</v>
+      </c>
+      <c r="KX13" s="3">
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KY13" s="3">
+        <v>316.77</v>
+      </c>
+      <c r="KZ13" s="3">
+        <v>348.42</v>
+      </c>
+      <c r="LA13" s="3">
+        <v>275.11</v>
       </c>
     </row>
-    <row r="14" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -13413,13 +14034,61 @@
         <v>301.43</v>
       </c>
       <c r="KJ14" s="3">
-        <v>298.83</v>
+        <v>336.59</v>
       </c>
       <c r="KK14" s="3">
-        <v>303.8</v>
+        <v>367.99</v>
+      </c>
+      <c r="KL14" s="3">
+        <v>307.47000000000003</v>
+      </c>
+      <c r="KM14" s="3">
+        <v>300.14999999999998</v>
+      </c>
+      <c r="KN14" s="3">
+        <v>321.08</v>
+      </c>
+      <c r="KO14" s="3">
+        <v>300.38</v>
+      </c>
+      <c r="KP14" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KQ14" s="3">
+        <v>327.02</v>
+      </c>
+      <c r="KR14" s="3">
+        <v>325.3</v>
+      </c>
+      <c r="KS14" s="3">
+        <v>332.26</v>
+      </c>
+      <c r="KT14" s="3">
+        <v>303.44</v>
+      </c>
+      <c r="KU14" s="3">
+        <v>359.1</v>
+      </c>
+      <c r="KV14" s="3">
+        <v>292.45</v>
+      </c>
+      <c r="KW14" s="3">
+        <v>349.68</v>
+      </c>
+      <c r="KX14" s="3">
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KY14" s="3">
+        <v>316.77</v>
+      </c>
+      <c r="KZ14" s="3">
+        <v>348.42</v>
+      </c>
+      <c r="LA14" s="3">
+        <v>346.66</v>
       </c>
     </row>
-    <row r="15" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -14306,13 +14975,61 @@
         <v>287.88</v>
       </c>
       <c r="KJ15" s="3">
-        <v>298.27999999999997</v>
+        <v>294.37</v>
       </c>
       <c r="KK15" s="3">
-        <v>301.49</v>
+        <v>311.89</v>
+      </c>
+      <c r="KL15" s="3">
+        <v>307.13</v>
+      </c>
+      <c r="KM15" s="3">
+        <v>294.39</v>
+      </c>
+      <c r="KN15" s="3">
+        <v>312.70999999999998</v>
+      </c>
+      <c r="KO15" s="3">
+        <v>297.08</v>
+      </c>
+      <c r="KP15" s="3">
+        <v>296.69</v>
+      </c>
+      <c r="KQ15" s="3">
+        <v>320.73</v>
+      </c>
+      <c r="KR15" s="3">
+        <v>322.42</v>
+      </c>
+      <c r="KS15" s="3">
+        <v>330.88</v>
+      </c>
+      <c r="KT15" s="3">
+        <v>302.56</v>
+      </c>
+      <c r="KU15" s="3">
+        <v>353.16</v>
+      </c>
+      <c r="KV15" s="3">
+        <v>286.5</v>
+      </c>
+      <c r="KW15" s="3">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="KX15" s="3">
+        <v>238.42</v>
+      </c>
+      <c r="KY15" s="3">
+        <v>313.08999999999997</v>
+      </c>
+      <c r="KZ15" s="3">
+        <v>325.52999999999997</v>
+      </c>
+      <c r="LA15" s="3">
+        <v>342.67</v>
       </c>
     </row>
-    <row r="16" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -15199,13 +15916,61 @@
         <v>287.88</v>
       </c>
       <c r="KJ16" s="3">
-        <v>298.27999999999997</v>
+        <v>294.37</v>
       </c>
       <c r="KK16" s="3">
-        <v>301.49</v>
+        <v>311.89</v>
+      </c>
+      <c r="KL16" s="3">
+        <v>307.14</v>
+      </c>
+      <c r="KM16" s="3">
+        <v>294.39</v>
+      </c>
+      <c r="KN16" s="3">
+        <v>312.70999999999998</v>
+      </c>
+      <c r="KO16" s="3">
+        <v>297.08</v>
+      </c>
+      <c r="KP16" s="3">
+        <v>296.69</v>
+      </c>
+      <c r="KQ16" s="3">
+        <v>320.73</v>
+      </c>
+      <c r="KR16" s="3">
+        <v>322.42</v>
+      </c>
+      <c r="KS16" s="3">
+        <v>330.88</v>
+      </c>
+      <c r="KT16" s="3">
+        <v>302.56</v>
+      </c>
+      <c r="KU16" s="3">
+        <v>353.16</v>
+      </c>
+      <c r="KV16" s="3">
+        <v>286.5</v>
+      </c>
+      <c r="KW16" s="3">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="KX16" s="3">
+        <v>238.42</v>
+      </c>
+      <c r="KY16" s="3">
+        <v>313.08999999999997</v>
+      </c>
+      <c r="KZ16" s="3">
+        <v>325.52999999999997</v>
+      </c>
+      <c r="LA16" s="3">
+        <v>342.67</v>
       </c>
     </row>
-    <row r="17" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -16092,13 +16857,61 @@
         <v>143.08000000000001</v>
       </c>
       <c r="KJ17" s="3">
-        <v>148.38</v>
+        <v>137.07</v>
       </c>
       <c r="KK17" s="3">
-        <v>163.98</v>
+        <v>141.91999999999999</v>
+      </c>
+      <c r="KL17" s="3">
+        <v>150.65</v>
+      </c>
+      <c r="KM17" s="3">
+        <v>204.63</v>
+      </c>
+      <c r="KN17" s="3">
+        <v>152.02000000000001</v>
+      </c>
+      <c r="KO17" s="3">
+        <v>195.27</v>
+      </c>
+      <c r="KP17" s="3">
+        <v>286.12</v>
+      </c>
+      <c r="KQ17" s="3">
+        <v>320.73</v>
+      </c>
+      <c r="KR17" s="3">
+        <v>322.42</v>
+      </c>
+      <c r="KS17" s="3">
+        <v>330.88</v>
+      </c>
+      <c r="KT17" s="3">
+        <v>161.59</v>
+      </c>
+      <c r="KU17" s="3">
+        <v>229.8</v>
+      </c>
+      <c r="KV17" s="3">
+        <v>286.5</v>
+      </c>
+      <c r="KW17" s="3">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="KX17" s="3">
+        <v>238.42</v>
+      </c>
+      <c r="KY17" s="3">
+        <v>225.57</v>
+      </c>
+      <c r="KZ17" s="3">
+        <v>266.73</v>
+      </c>
+      <c r="LA17" s="3">
+        <v>159.47</v>
       </c>
     </row>
-    <row r="18" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -16985,13 +17798,61 @@
         <v>288.74</v>
       </c>
       <c r="KJ18" s="3">
-        <v>298.27999999999997</v>
+        <v>340.79</v>
       </c>
       <c r="KK18" s="3">
-        <v>301.49</v>
+        <v>365.62</v>
+      </c>
+      <c r="KL18" s="3">
+        <v>307.13</v>
+      </c>
+      <c r="KM18" s="3">
+        <v>294.39</v>
+      </c>
+      <c r="KN18" s="3">
+        <v>312.70999999999998</v>
+      </c>
+      <c r="KO18" s="3">
+        <v>297.08</v>
+      </c>
+      <c r="KP18" s="3">
+        <v>296.69</v>
+      </c>
+      <c r="KQ18" s="3">
+        <v>320.73</v>
+      </c>
+      <c r="KR18" s="3">
+        <v>322.42</v>
+      </c>
+      <c r="KS18" s="3">
+        <v>330.88</v>
+      </c>
+      <c r="KT18" s="3">
+        <v>302.56</v>
+      </c>
+      <c r="KU18" s="3">
+        <v>353.16</v>
+      </c>
+      <c r="KV18" s="3">
+        <v>286.5</v>
+      </c>
+      <c r="KW18" s="3">
+        <v>306.58999999999997</v>
+      </c>
+      <c r="KX18" s="3">
+        <v>238.42</v>
+      </c>
+      <c r="KY18" s="3">
+        <v>313.08999999999997</v>
+      </c>
+      <c r="KZ18" s="3">
+        <v>325.52999999999997</v>
+      </c>
+      <c r="LA18" s="3">
+        <v>342.67</v>
       </c>
     </row>
-    <row r="19" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -17878,13 +18739,61 @@
         <v>288</v>
       </c>
       <c r="KJ19" s="3">
-        <v>298</v>
+        <v>293.87</v>
       </c>
       <c r="KK19" s="3">
-        <v>300.58999999999997</v>
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KL19" s="3">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="KM19" s="3">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="KN19" s="3">
+        <v>307.37</v>
+      </c>
+      <c r="KO19" s="3">
+        <v>291.74</v>
+      </c>
+      <c r="KP19" s="3">
+        <v>298.64</v>
+      </c>
+      <c r="KQ19" s="3">
+        <v>320.43</v>
+      </c>
+      <c r="KR19" s="3">
+        <v>320.7</v>
+      </c>
+      <c r="KS19" s="3">
+        <v>330.91</v>
+      </c>
+      <c r="KT19" s="3">
+        <v>302.69</v>
+      </c>
+      <c r="KU19" s="3">
+        <v>351.94</v>
+      </c>
+      <c r="KV19" s="3">
+        <v>277.32</v>
+      </c>
+      <c r="KW19" s="3">
+        <v>277.2</v>
+      </c>
+      <c r="KX19" s="3">
+        <v>253.33</v>
+      </c>
+      <c r="KY19" s="3">
+        <v>321.05</v>
+      </c>
+      <c r="KZ19" s="3">
+        <v>325.76</v>
+      </c>
+      <c r="LA19" s="3">
+        <v>344.16</v>
       </c>
     </row>
-    <row r="20" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -18771,13 +19680,61 @@
         <v>288</v>
       </c>
       <c r="KJ20" s="3">
-        <v>298</v>
+        <v>293.87</v>
       </c>
       <c r="KK20" s="3">
-        <v>300.58999999999997</v>
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KL20" s="3">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="KM20" s="3">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="KN20" s="3">
+        <v>307.37</v>
+      </c>
+      <c r="KO20" s="3">
+        <v>291.74</v>
+      </c>
+      <c r="KP20" s="3">
+        <v>298.64</v>
+      </c>
+      <c r="KQ20" s="3">
+        <v>320.43</v>
+      </c>
+      <c r="KR20" s="3">
+        <v>320.7</v>
+      </c>
+      <c r="KS20" s="3">
+        <v>330.91</v>
+      </c>
+      <c r="KT20" s="3">
+        <v>302.69</v>
+      </c>
+      <c r="KU20" s="3">
+        <v>351.94</v>
+      </c>
+      <c r="KV20" s="3">
+        <v>277.32</v>
+      </c>
+      <c r="KW20" s="3">
+        <v>277.2</v>
+      </c>
+      <c r="KX20" s="3">
+        <v>253.33</v>
+      </c>
+      <c r="KY20" s="3">
+        <v>321.05</v>
+      </c>
+      <c r="KZ20" s="3">
+        <v>325.76</v>
+      </c>
+      <c r="LA20" s="3">
+        <v>344.16</v>
       </c>
     </row>
-    <row r="21" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -19664,13 +20621,61 @@
         <v>147.69</v>
       </c>
       <c r="KJ21" s="3">
-        <v>148.41999999999999</v>
+        <v>138.4</v>
       </c>
       <c r="KK21" s="3">
-        <v>151.25</v>
+        <v>141.71</v>
+      </c>
+      <c r="KL21" s="3">
+        <v>165.74</v>
+      </c>
+      <c r="KM21" s="3">
+        <v>204.33</v>
+      </c>
+      <c r="KN21" s="3">
+        <v>151.76</v>
+      </c>
+      <c r="KO21" s="3">
+        <v>193.75</v>
+      </c>
+      <c r="KP21" s="3">
+        <v>277.07</v>
+      </c>
+      <c r="KQ21" s="3">
+        <v>320.43</v>
+      </c>
+      <c r="KR21" s="3">
+        <v>320.7</v>
+      </c>
+      <c r="KS21" s="3">
+        <v>307.13</v>
+      </c>
+      <c r="KT21" s="3">
+        <v>161.41</v>
+      </c>
+      <c r="KU21" s="3">
+        <v>229.42</v>
+      </c>
+      <c r="KV21" s="3">
+        <v>277.32</v>
+      </c>
+      <c r="KW21" s="3">
+        <v>277.2</v>
+      </c>
+      <c r="KX21" s="3">
+        <v>235.64</v>
+      </c>
+      <c r="KY21" s="3">
+        <v>205.86</v>
+      </c>
+      <c r="KZ21" s="3">
+        <v>213.54</v>
+      </c>
+      <c r="LA21" s="3">
+        <v>162.84</v>
       </c>
     </row>
-    <row r="22" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -20557,13 +21562,61 @@
         <v>288</v>
       </c>
       <c r="KJ22" s="3">
-        <v>298</v>
+        <v>331.89</v>
       </c>
       <c r="KK22" s="3">
-        <v>300.58999999999997</v>
+        <v>311.27999999999997</v>
+      </c>
+      <c r="KL22" s="3">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="KM22" s="3">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="KN22" s="3">
+        <v>307.37</v>
+      </c>
+      <c r="KO22" s="3">
+        <v>291.74</v>
+      </c>
+      <c r="KP22" s="3">
+        <v>298.64</v>
+      </c>
+      <c r="KQ22" s="3">
+        <v>320.43</v>
+      </c>
+      <c r="KR22" s="3">
+        <v>320.7</v>
+      </c>
+      <c r="KS22" s="3">
+        <v>330.91</v>
+      </c>
+      <c r="KT22" s="3">
+        <v>302.69</v>
+      </c>
+      <c r="KU22" s="3">
+        <v>351.94</v>
+      </c>
+      <c r="KV22" s="3">
+        <v>277.32</v>
+      </c>
+      <c r="KW22" s="3">
+        <v>277.2</v>
+      </c>
+      <c r="KX22" s="3">
+        <v>253.33</v>
+      </c>
+      <c r="KY22" s="3">
+        <v>321.05</v>
+      </c>
+      <c r="KZ22" s="3">
+        <v>325.76</v>
+      </c>
+      <c r="LA22" s="3">
+        <v>344.16</v>
       </c>
     </row>
-    <row r="23" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -21450,13 +22503,61 @@
         <v>294.69</v>
       </c>
       <c r="KJ23" s="3">
-        <v>298.45999999999998</v>
+        <v>296.45</v>
       </c>
       <c r="KK23" s="3">
-        <v>302.22000000000003</v>
+        <v>310.20999999999998</v>
+      </c>
+      <c r="KL23" s="3">
+        <v>306.61</v>
+      </c>
+      <c r="KM23" s="3">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="KN23" s="3">
+        <v>307.44</v>
+      </c>
+      <c r="KO23" s="3">
+        <v>282.14999999999998</v>
+      </c>
+      <c r="KP23" s="3">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="KQ23" s="3">
+        <v>315.77</v>
+      </c>
+      <c r="KR23" s="3">
+        <v>320.58999999999997</v>
+      </c>
+      <c r="KS23" s="3">
+        <v>330.73</v>
+      </c>
+      <c r="KT23" s="3">
+        <v>303.57</v>
+      </c>
+      <c r="KU23" s="3">
+        <v>351.17</v>
+      </c>
+      <c r="KV23" s="3">
+        <v>240.47</v>
+      </c>
+      <c r="KW23" s="3">
+        <v>262.70999999999998</v>
+      </c>
+      <c r="KX23" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KY23" s="3">
+        <v>335.96</v>
+      </c>
+      <c r="KZ23" s="3">
+        <v>337.38</v>
+      </c>
+      <c r="LA23" s="3">
+        <v>344.76</v>
       </c>
     </row>
-    <row r="24" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -22343,13 +23444,61 @@
         <v>294.69</v>
       </c>
       <c r="KJ24" s="3">
-        <v>298.45999999999998</v>
+        <v>296.45</v>
       </c>
       <c r="KK24" s="3">
-        <v>302.22000000000003</v>
+        <v>310.20999999999998</v>
+      </c>
+      <c r="KL24" s="3">
+        <v>306.61</v>
+      </c>
+      <c r="KM24" s="3">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="KN24" s="3">
+        <v>307.44</v>
+      </c>
+      <c r="KO24" s="3">
+        <v>282.14999999999998</v>
+      </c>
+      <c r="KP24" s="3">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="KQ24" s="3">
+        <v>315.77</v>
+      </c>
+      <c r="KR24" s="3">
+        <v>320.58999999999997</v>
+      </c>
+      <c r="KS24" s="3">
+        <v>330.73</v>
+      </c>
+      <c r="KT24" s="3">
+        <v>303.57</v>
+      </c>
+      <c r="KU24" s="3">
+        <v>351.17</v>
+      </c>
+      <c r="KV24" s="3">
+        <v>240.47</v>
+      </c>
+      <c r="KW24" s="3">
+        <v>262.72000000000003</v>
+      </c>
+      <c r="KX24" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KY24" s="3">
+        <v>335.96</v>
+      </c>
+      <c r="KZ24" s="3">
+        <v>337.38</v>
+      </c>
+      <c r="LA24" s="3">
+        <v>344.76</v>
       </c>
     </row>
-    <row r="25" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -23236,13 +24385,61 @@
         <v>144.59</v>
       </c>
       <c r="KJ25" s="3">
-        <v>147.93</v>
+        <v>136.76</v>
       </c>
       <c r="KK25" s="3">
-        <v>150.44</v>
+        <v>140.76</v>
+      </c>
+      <c r="KL25" s="3">
+        <v>143.53</v>
+      </c>
+      <c r="KM25" s="3">
+        <v>195.99</v>
+      </c>
+      <c r="KN25" s="3">
+        <v>150.72</v>
+      </c>
+      <c r="KO25" s="3">
+        <v>185.75</v>
+      </c>
+      <c r="KP25" s="3">
+        <v>192.35</v>
+      </c>
+      <c r="KQ25" s="3">
+        <v>315.77</v>
+      </c>
+      <c r="KR25" s="3">
+        <v>320.58999999999997</v>
+      </c>
+      <c r="KS25" s="3">
+        <v>221.01</v>
+      </c>
+      <c r="KT25" s="3">
+        <v>160.46</v>
+      </c>
+      <c r="KU25" s="3">
+        <v>214.48</v>
+      </c>
+      <c r="KV25" s="3">
+        <v>232.03</v>
+      </c>
+      <c r="KW25" s="3">
+        <v>262.70999999999998</v>
+      </c>
+      <c r="KX25" s="3">
+        <v>190.95</v>
+      </c>
+      <c r="KY25" s="3">
+        <v>170.48</v>
+      </c>
+      <c r="KZ25" s="3">
+        <v>185.31</v>
+      </c>
+      <c r="LA25" s="3">
+        <v>146.86000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -24129,13 +25326,61 @@
         <v>294.69</v>
       </c>
       <c r="KJ26" s="3">
-        <v>298.45999999999998</v>
+        <v>296.58</v>
       </c>
       <c r="KK26" s="3">
-        <v>302.22000000000003</v>
+        <v>310.20999999999998</v>
+      </c>
+      <c r="KL26" s="3">
+        <v>306.61</v>
+      </c>
+      <c r="KM26" s="3">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="KN26" s="3">
+        <v>307.44</v>
+      </c>
+      <c r="KO26" s="3">
+        <v>282.14999999999998</v>
+      </c>
+      <c r="KP26" s="3">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="KQ26" s="3">
+        <v>315.77</v>
+      </c>
+      <c r="KR26" s="3">
+        <v>320.58999999999997</v>
+      </c>
+      <c r="KS26" s="3">
+        <v>330.73</v>
+      </c>
+      <c r="KT26" s="3">
+        <v>303.57</v>
+      </c>
+      <c r="KU26" s="3">
+        <v>351.17</v>
+      </c>
+      <c r="KV26" s="3">
+        <v>240.47</v>
+      </c>
+      <c r="KW26" s="3">
+        <v>262.70999999999998</v>
+      </c>
+      <c r="KX26" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KY26" s="3">
+        <v>335.96</v>
+      </c>
+      <c r="KZ26" s="3">
+        <v>337.38</v>
+      </c>
+      <c r="LA26" s="3">
+        <v>344.76</v>
       </c>
     </row>
-    <row r="27" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -25022,13 +26267,61 @@
         <v>299.35000000000002</v>
       </c>
       <c r="KJ27" s="3">
-        <v>300.27</v>
+        <v>305.32</v>
       </c>
       <c r="KK27" s="3">
-        <v>303.81</v>
+        <v>316.20999999999998</v>
+      </c>
+      <c r="KL27" s="3">
+        <v>314.05</v>
+      </c>
+      <c r="KM27" s="3">
+        <v>305.73</v>
+      </c>
+      <c r="KN27" s="3">
+        <v>307.29000000000002</v>
+      </c>
+      <c r="KO27" s="3">
+        <v>276.08</v>
+      </c>
+      <c r="KP27" s="3">
+        <v>321.19</v>
+      </c>
+      <c r="KQ27" s="3">
+        <v>320.55</v>
+      </c>
+      <c r="KR27" s="3">
+        <v>322.14</v>
+      </c>
+      <c r="KS27" s="3">
+        <v>332.04</v>
+      </c>
+      <c r="KT27" s="3">
+        <v>304.66000000000003</v>
+      </c>
+      <c r="KU27" s="3">
+        <v>351.52</v>
+      </c>
+      <c r="KV27" s="3">
+        <v>193.81</v>
+      </c>
+      <c r="KW27" s="3">
+        <v>192.94</v>
+      </c>
+      <c r="KX27" s="3">
+        <v>346.86</v>
+      </c>
+      <c r="KY27" s="3">
+        <v>345.11</v>
+      </c>
+      <c r="KZ27" s="3">
+        <v>347.79</v>
+      </c>
+      <c r="LA27" s="3">
+        <v>350.99</v>
       </c>
     </row>
-    <row r="28" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>6</v>
       </c>
@@ -25915,13 +27208,61 @@
         <v>299.35000000000002</v>
       </c>
       <c r="KJ28" s="3">
-        <v>300.27</v>
+        <v>305.32</v>
       </c>
       <c r="KK28" s="3">
-        <v>303.81</v>
+        <v>316.20999999999998</v>
+      </c>
+      <c r="KL28" s="3">
+        <v>314.05</v>
+      </c>
+      <c r="KM28" s="3">
+        <v>305.73</v>
+      </c>
+      <c r="KN28" s="3">
+        <v>307.29000000000002</v>
+      </c>
+      <c r="KO28" s="3">
+        <v>276.08</v>
+      </c>
+      <c r="KP28" s="3">
+        <v>321.19</v>
+      </c>
+      <c r="KQ28" s="3">
+        <v>320.55</v>
+      </c>
+      <c r="KR28" s="3">
+        <v>322.14</v>
+      </c>
+      <c r="KS28" s="3">
+        <v>332.04</v>
+      </c>
+      <c r="KT28" s="3">
+        <v>304.66000000000003</v>
+      </c>
+      <c r="KU28" s="3">
+        <v>351.52</v>
+      </c>
+      <c r="KV28" s="3">
+        <v>193.82</v>
+      </c>
+      <c r="KW28" s="3">
+        <v>192.95</v>
+      </c>
+      <c r="KX28" s="3">
+        <v>346.86</v>
+      </c>
+      <c r="KY28" s="3">
+        <v>345.11</v>
+      </c>
+      <c r="KZ28" s="3">
+        <v>347.79</v>
+      </c>
+      <c r="LA28" s="3">
+        <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>6</v>
       </c>
@@ -26808,13 +28149,61 @@
         <v>129.93</v>
       </c>
       <c r="KJ29" s="3">
-        <v>146.63</v>
+        <v>130.38</v>
       </c>
       <c r="KK29" s="3">
-        <v>142.61000000000001</v>
+        <v>120.24</v>
+      </c>
+      <c r="KL29" s="3">
+        <v>138.07</v>
+      </c>
+      <c r="KM29" s="3">
+        <v>162.71</v>
+      </c>
+      <c r="KN29" s="3">
+        <v>148.93</v>
+      </c>
+      <c r="KO29" s="3">
+        <v>166.79</v>
+      </c>
+      <c r="KP29" s="3">
+        <v>169.78</v>
+      </c>
+      <c r="KQ29" s="3">
+        <v>299.92</v>
+      </c>
+      <c r="KR29" s="3">
+        <v>250.44</v>
+      </c>
+      <c r="KS29" s="3">
+        <v>198.76</v>
+      </c>
+      <c r="KT29" s="3">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="KU29" s="3">
+        <v>181.24</v>
+      </c>
+      <c r="KV29" s="3">
+        <v>178.37</v>
+      </c>
+      <c r="KW29" s="3">
+        <v>192.94</v>
+      </c>
+      <c r="KX29" s="3">
+        <v>172.13</v>
+      </c>
+      <c r="KY29" s="3">
+        <v>167</v>
+      </c>
+      <c r="KZ29" s="3">
+        <v>167.4</v>
+      </c>
+      <c r="LA29" s="3">
+        <v>138.94</v>
       </c>
     </row>
-    <row r="30" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>6</v>
       </c>
@@ -27701,13 +29090,61 @@
         <v>299.35000000000002</v>
       </c>
       <c r="KJ30" s="3">
-        <v>300.27</v>
+        <v>305.32</v>
       </c>
       <c r="KK30" s="3">
-        <v>303.81</v>
+        <v>316.20999999999998</v>
+      </c>
+      <c r="KL30" s="3">
+        <v>314.05</v>
+      </c>
+      <c r="KM30" s="3">
+        <v>305.73</v>
+      </c>
+      <c r="KN30" s="3">
+        <v>307.29000000000002</v>
+      </c>
+      <c r="KO30" s="3">
+        <v>276.08</v>
+      </c>
+      <c r="KP30" s="3">
+        <v>321.19</v>
+      </c>
+      <c r="KQ30" s="3">
+        <v>320.55</v>
+      </c>
+      <c r="KR30" s="3">
+        <v>322.14</v>
+      </c>
+      <c r="KS30" s="3">
+        <v>332.04</v>
+      </c>
+      <c r="KT30" s="3">
+        <v>304.66000000000003</v>
+      </c>
+      <c r="KU30" s="3">
+        <v>351.52</v>
+      </c>
+      <c r="KV30" s="3">
+        <v>193.81</v>
+      </c>
+      <c r="KW30" s="3">
+        <v>192.94</v>
+      </c>
+      <c r="KX30" s="3">
+        <v>346.86</v>
+      </c>
+      <c r="KY30" s="3">
+        <v>345.11</v>
+      </c>
+      <c r="KZ30" s="3">
+        <v>347.79</v>
+      </c>
+      <c r="LA30" s="3">
+        <v>350.99</v>
       </c>
     </row>
-    <row r="31" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>7</v>
       </c>
@@ -28594,13 +30031,61 @@
         <v>321.47000000000003</v>
       </c>
       <c r="KJ31" s="3">
-        <v>315.24</v>
+        <v>337.18</v>
       </c>
       <c r="KK31" s="3">
-        <v>326.54000000000002</v>
+        <v>346.42</v>
+      </c>
+      <c r="KL31" s="3">
+        <v>335.82</v>
+      </c>
+      <c r="KM31" s="3">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="KN31" s="3">
+        <v>321.13</v>
+      </c>
+      <c r="KO31" s="3">
+        <v>280.33</v>
+      </c>
+      <c r="KP31" s="3">
+        <v>330.13</v>
+      </c>
+      <c r="KQ31" s="3">
+        <v>334.33</v>
+      </c>
+      <c r="KR31" s="3">
+        <v>325.26</v>
+      </c>
+      <c r="KS31" s="3">
+        <v>334.47</v>
+      </c>
+      <c r="KT31" s="3">
+        <v>319.57</v>
+      </c>
+      <c r="KU31" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="KV31" s="3">
+        <v>203.17</v>
+      </c>
+      <c r="KW31" s="3">
+        <v>232.17</v>
+      </c>
+      <c r="KX31" s="3">
+        <v>364.17</v>
+      </c>
+      <c r="KY31" s="3">
+        <v>363.22</v>
+      </c>
+      <c r="KZ31" s="3">
+        <v>362.24</v>
+      </c>
+      <c r="LA31" s="3">
+        <v>359.43</v>
       </c>
     </row>
-    <row r="32" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -29487,13 +30972,61 @@
         <v>321.47000000000003</v>
       </c>
       <c r="KJ32" s="3">
-        <v>315.24</v>
+        <v>337.18</v>
       </c>
       <c r="KK32" s="3">
-        <v>326.54000000000002</v>
+        <v>346.42</v>
+      </c>
+      <c r="KL32" s="3">
+        <v>335.82</v>
+      </c>
+      <c r="KM32" s="3">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="KN32" s="3">
+        <v>321.13</v>
+      </c>
+      <c r="KO32" s="3">
+        <v>280.33</v>
+      </c>
+      <c r="KP32" s="3">
+        <v>330.14</v>
+      </c>
+      <c r="KQ32" s="3">
+        <v>334.33</v>
+      </c>
+      <c r="KR32" s="3">
+        <v>325.26</v>
+      </c>
+      <c r="KS32" s="3">
+        <v>334.47</v>
+      </c>
+      <c r="KT32" s="3">
+        <v>319.57</v>
+      </c>
+      <c r="KU32" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="KV32" s="3">
+        <v>203.17</v>
+      </c>
+      <c r="KW32" s="3">
+        <v>232.18</v>
+      </c>
+      <c r="KX32" s="3">
+        <v>364.17</v>
+      </c>
+      <c r="KY32" s="3">
+        <v>363.22</v>
+      </c>
+      <c r="KZ32" s="3">
+        <v>362.24</v>
+      </c>
+      <c r="LA32" s="3">
+        <v>359.43</v>
       </c>
     </row>
-    <row r="33" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -30380,13 +31913,61 @@
         <v>113.78</v>
       </c>
       <c r="KJ33" s="3">
-        <v>111.37</v>
+        <v>121.7</v>
       </c>
       <c r="KK33" s="3">
-        <v>125.99</v>
+        <v>120.43</v>
+      </c>
+      <c r="KL33" s="3">
+        <v>110.9</v>
+      </c>
+      <c r="KM33" s="3">
+        <v>135.77000000000001</v>
+      </c>
+      <c r="KN33" s="3">
+        <v>128.69</v>
+      </c>
+      <c r="KO33" s="3">
+        <v>160.55000000000001</v>
+      </c>
+      <c r="KP33" s="3">
+        <v>178.8</v>
+      </c>
+      <c r="KQ33" s="3">
+        <v>313.73</v>
+      </c>
+      <c r="KR33" s="3">
+        <v>265.52999999999997</v>
+      </c>
+      <c r="KS33" s="3">
+        <v>193.29</v>
+      </c>
+      <c r="KT33" s="3">
+        <v>158.12</v>
+      </c>
+      <c r="KU33" s="3">
+        <v>172.84</v>
+      </c>
+      <c r="KV33" s="3">
+        <v>161.53</v>
+      </c>
+      <c r="KW33" s="3">
+        <v>208.11</v>
+      </c>
+      <c r="KX33" s="3">
+        <v>174.66</v>
+      </c>
+      <c r="KY33" s="3">
+        <v>169.52</v>
+      </c>
+      <c r="KZ33" s="3">
+        <v>158.24</v>
+      </c>
+      <c r="LA33" s="3">
+        <v>134.74</v>
       </c>
     </row>
-    <row r="34" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>7</v>
       </c>
@@ -31273,13 +32854,61 @@
         <v>321.47000000000003</v>
       </c>
       <c r="KJ34" s="3">
-        <v>315.24</v>
+        <v>337.18</v>
       </c>
       <c r="KK34" s="3">
-        <v>326.54000000000002</v>
+        <v>346.42</v>
+      </c>
+      <c r="KL34" s="3">
+        <v>335.82</v>
+      </c>
+      <c r="KM34" s="3">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="KN34" s="3">
+        <v>321.13</v>
+      </c>
+      <c r="KO34" s="3">
+        <v>280.33</v>
+      </c>
+      <c r="KP34" s="3">
+        <v>330.13</v>
+      </c>
+      <c r="KQ34" s="3">
+        <v>334.33</v>
+      </c>
+      <c r="KR34" s="3">
+        <v>325.26</v>
+      </c>
+      <c r="KS34" s="3">
+        <v>334.47</v>
+      </c>
+      <c r="KT34" s="3">
+        <v>319.57</v>
+      </c>
+      <c r="KU34" s="3">
+        <v>352.1</v>
+      </c>
+      <c r="KV34" s="3">
+        <v>203.17</v>
+      </c>
+      <c r="KW34" s="3">
+        <v>232.17</v>
+      </c>
+      <c r="KX34" s="3">
+        <v>364.17</v>
+      </c>
+      <c r="KY34" s="3">
+        <v>363.22</v>
+      </c>
+      <c r="KZ34" s="3">
+        <v>362.24</v>
+      </c>
+      <c r="LA34" s="3">
+        <v>359.43</v>
       </c>
     </row>
-    <row r="35" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>8</v>
       </c>
@@ -32166,13 +33795,61 @@
         <v>329.54</v>
       </c>
       <c r="KJ35" s="3">
-        <v>329.11</v>
+        <v>345.27</v>
       </c>
       <c r="KK35" s="3">
-        <v>335.4</v>
+        <v>356.3</v>
+      </c>
+      <c r="KL35" s="3">
+        <v>344.45</v>
+      </c>
+      <c r="KM35" s="3">
+        <v>331.07</v>
+      </c>
+      <c r="KN35" s="3">
+        <v>329</v>
+      </c>
+      <c r="KO35" s="3">
+        <v>296</v>
+      </c>
+      <c r="KP35" s="3">
+        <v>337.89</v>
+      </c>
+      <c r="KQ35" s="3">
+        <v>335.59</v>
+      </c>
+      <c r="KR35" s="3">
+        <v>335.52</v>
+      </c>
+      <c r="KS35" s="3">
+        <v>350.7</v>
+      </c>
+      <c r="KT35" s="3">
+        <v>331.29</v>
+      </c>
+      <c r="KU35" s="3">
+        <v>360.58</v>
+      </c>
+      <c r="KV35" s="3">
+        <v>222.66</v>
+      </c>
+      <c r="KW35" s="3">
+        <v>320.79000000000002</v>
+      </c>
+      <c r="KX35" s="3">
+        <v>370.88</v>
+      </c>
+      <c r="KY35" s="3">
+        <v>369.11</v>
+      </c>
+      <c r="KZ35" s="3">
+        <v>363.12</v>
+      </c>
+      <c r="LA35" s="3">
+        <v>361.96</v>
       </c>
     </row>
-    <row r="36" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -33059,13 +34736,61 @@
         <v>329.54</v>
       </c>
       <c r="KJ36" s="3">
-        <v>329.11</v>
+        <v>345.27</v>
       </c>
       <c r="KK36" s="3">
-        <v>335.4</v>
+        <v>356.3</v>
+      </c>
+      <c r="KL36" s="3">
+        <v>344.45</v>
+      </c>
+      <c r="KM36" s="3">
+        <v>331.07</v>
+      </c>
+      <c r="KN36" s="3">
+        <v>329</v>
+      </c>
+      <c r="KO36" s="3">
+        <v>296</v>
+      </c>
+      <c r="KP36" s="3">
+        <v>337.89</v>
+      </c>
+      <c r="KQ36" s="3">
+        <v>335.59</v>
+      </c>
+      <c r="KR36" s="3">
+        <v>335.52</v>
+      </c>
+      <c r="KS36" s="3">
+        <v>350.7</v>
+      </c>
+      <c r="KT36" s="3">
+        <v>331.29</v>
+      </c>
+      <c r="KU36" s="3">
+        <v>360.58</v>
+      </c>
+      <c r="KV36" s="3">
+        <v>222.66</v>
+      </c>
+      <c r="KW36" s="3">
+        <v>320.79000000000002</v>
+      </c>
+      <c r="KX36" s="3">
+        <v>370.88</v>
+      </c>
+      <c r="KY36" s="3">
+        <v>369.11</v>
+      </c>
+      <c r="KZ36" s="3">
+        <v>363.12</v>
+      </c>
+      <c r="LA36" s="3">
+        <v>361.96</v>
       </c>
     </row>
-    <row r="37" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -33952,13 +35677,61 @@
         <v>115.38</v>
       </c>
       <c r="KJ37" s="3">
-        <v>114.72</v>
+        <v>122.87</v>
       </c>
       <c r="KK37" s="3">
-        <v>136.80000000000001</v>
+        <v>121.14</v>
+      </c>
+      <c r="KL37" s="3">
+        <v>120.84</v>
+      </c>
+      <c r="KM37" s="3">
+        <v>162.5</v>
+      </c>
+      <c r="KN37" s="3">
+        <v>119.17</v>
+      </c>
+      <c r="KO37" s="3">
+        <v>136.63999999999999</v>
+      </c>
+      <c r="KP37" s="3">
+        <v>191.36</v>
+      </c>
+      <c r="KQ37" s="3">
+        <v>324.64</v>
+      </c>
+      <c r="KR37" s="3">
+        <v>299.54000000000002</v>
+      </c>
+      <c r="KS37" s="3">
+        <v>193.96</v>
+      </c>
+      <c r="KT37" s="3">
+        <v>161.26</v>
+      </c>
+      <c r="KU37" s="3">
+        <v>171.18</v>
+      </c>
+      <c r="KV37" s="3">
+        <v>158.21</v>
+      </c>
+      <c r="KW37" s="3">
+        <v>188.53</v>
+      </c>
+      <c r="KX37" s="3">
+        <v>228.94</v>
+      </c>
+      <c r="KY37" s="3">
+        <v>196.68</v>
+      </c>
+      <c r="KZ37" s="3">
+        <v>168.71</v>
+      </c>
+      <c r="LA37" s="3">
+        <v>141.88999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -34845,13 +36618,61 @@
         <v>329.54</v>
       </c>
       <c r="KJ38" s="3">
-        <v>329.11</v>
+        <v>345.27</v>
       </c>
       <c r="KK38" s="3">
-        <v>335.4</v>
+        <v>356.3</v>
+      </c>
+      <c r="KL38" s="3">
+        <v>344.45</v>
+      </c>
+      <c r="KM38" s="3">
+        <v>331.07</v>
+      </c>
+      <c r="KN38" s="3">
+        <v>329</v>
+      </c>
+      <c r="KO38" s="3">
+        <v>296</v>
+      </c>
+      <c r="KP38" s="3">
+        <v>337.89</v>
+      </c>
+      <c r="KQ38" s="3">
+        <v>335.59</v>
+      </c>
+      <c r="KR38" s="3">
+        <v>335.52</v>
+      </c>
+      <c r="KS38" s="3">
+        <v>350.7</v>
+      </c>
+      <c r="KT38" s="3">
+        <v>331.29</v>
+      </c>
+      <c r="KU38" s="3">
+        <v>360.58</v>
+      </c>
+      <c r="KV38" s="3">
+        <v>222.66</v>
+      </c>
+      <c r="KW38" s="3">
+        <v>320.79000000000002</v>
+      </c>
+      <c r="KX38" s="3">
+        <v>370.88</v>
+      </c>
+      <c r="KY38" s="3">
+        <v>369.11</v>
+      </c>
+      <c r="KZ38" s="3">
+        <v>363.12</v>
+      </c>
+      <c r="LA38" s="3">
+        <v>361.96</v>
       </c>
     </row>
-    <row r="39" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>9</v>
       </c>
@@ -35738,13 +37559,61 @@
         <v>341.16</v>
       </c>
       <c r="KJ39" s="3">
-        <v>336.86</v>
+        <v>350.51</v>
       </c>
       <c r="KK39" s="3">
-        <v>344.28</v>
+        <v>365.98</v>
+      </c>
+      <c r="KL39" s="3">
+        <v>354.83</v>
+      </c>
+      <c r="KM39" s="3">
+        <v>339.99</v>
+      </c>
+      <c r="KN39" s="3">
+        <v>329.01</v>
+      </c>
+      <c r="KO39" s="3">
+        <v>300.63</v>
+      </c>
+      <c r="KP39" s="3">
+        <v>342.28</v>
+      </c>
+      <c r="KQ39" s="3">
+        <v>338.9</v>
+      </c>
+      <c r="KR39" s="3">
+        <v>340.83</v>
+      </c>
+      <c r="KS39" s="3">
+        <v>351.7</v>
+      </c>
+      <c r="KT39" s="3">
+        <v>338.57</v>
+      </c>
+      <c r="KU39" s="3">
+        <v>363.67</v>
+      </c>
+      <c r="KV39" s="3">
+        <v>247.45</v>
+      </c>
+      <c r="KW39" s="3">
+        <v>338.37</v>
+      </c>
+      <c r="KX39" s="3">
+        <v>375.35</v>
+      </c>
+      <c r="KY39" s="3">
+        <v>370.25</v>
+      </c>
+      <c r="KZ39" s="3">
+        <v>370.33</v>
+      </c>
+      <c r="LA39" s="3">
+        <v>366.79</v>
       </c>
     </row>
-    <row r="40" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>9</v>
       </c>
@@ -36631,13 +38500,61 @@
         <v>341.16</v>
       </c>
       <c r="KJ40" s="3">
-        <v>336.86</v>
+        <v>350.51</v>
       </c>
       <c r="KK40" s="3">
-        <v>344.28</v>
+        <v>365.98</v>
+      </c>
+      <c r="KL40" s="3">
+        <v>354.83</v>
+      </c>
+      <c r="KM40" s="3">
+        <v>339.99</v>
+      </c>
+      <c r="KN40" s="3">
+        <v>329.01</v>
+      </c>
+      <c r="KO40" s="3">
+        <v>300.63</v>
+      </c>
+      <c r="KP40" s="3">
+        <v>342.28</v>
+      </c>
+      <c r="KQ40" s="3">
+        <v>338.9</v>
+      </c>
+      <c r="KR40" s="3">
+        <v>340.83</v>
+      </c>
+      <c r="KS40" s="3">
+        <v>351.7</v>
+      </c>
+      <c r="KT40" s="3">
+        <v>338.57</v>
+      </c>
+      <c r="KU40" s="3">
+        <v>363.67</v>
+      </c>
+      <c r="KV40" s="3">
+        <v>247.45</v>
+      </c>
+      <c r="KW40" s="3">
+        <v>338.37</v>
+      </c>
+      <c r="KX40" s="3">
+        <v>375.35</v>
+      </c>
+      <c r="KY40" s="3">
+        <v>370.25</v>
+      </c>
+      <c r="KZ40" s="3">
+        <v>370.33</v>
+      </c>
+      <c r="LA40" s="3">
+        <v>366.79</v>
       </c>
     </row>
-    <row r="41" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>9</v>
       </c>
@@ -37524,13 +39441,61 @@
         <v>149.35</v>
       </c>
       <c r="KJ41" s="3">
-        <v>164.94</v>
+        <v>131.22999999999999</v>
       </c>
       <c r="KK41" s="3">
-        <v>168.26</v>
+        <v>139.11000000000001</v>
+      </c>
+      <c r="KL41" s="3">
+        <v>172.56</v>
+      </c>
+      <c r="KM41" s="3">
+        <v>174.02</v>
+      </c>
+      <c r="KN41" s="3">
+        <v>139.84</v>
+      </c>
+      <c r="KO41" s="3">
+        <v>135.76</v>
+      </c>
+      <c r="KP41" s="3">
+        <v>206.03</v>
+      </c>
+      <c r="KQ41" s="3">
+        <v>331.09</v>
+      </c>
+      <c r="KR41" s="3">
+        <v>309.72000000000003</v>
+      </c>
+      <c r="KS41" s="3">
+        <v>206.78</v>
+      </c>
+      <c r="KT41" s="3">
+        <v>168.88</v>
+      </c>
+      <c r="KU41" s="3">
+        <v>176.85</v>
+      </c>
+      <c r="KV41" s="3">
+        <v>149.09</v>
+      </c>
+      <c r="KW41" s="3">
+        <v>186.12</v>
+      </c>
+      <c r="KX41" s="3">
+        <v>245.35</v>
+      </c>
+      <c r="KY41" s="3">
+        <v>306.79000000000002</v>
+      </c>
+      <c r="KZ41" s="3">
+        <v>201.49</v>
+      </c>
+      <c r="LA41" s="3">
+        <v>151.27000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -38417,13 +40382,61 @@
         <v>341.16</v>
       </c>
       <c r="KJ42" s="3">
-        <v>336.86</v>
+        <v>350.51</v>
       </c>
       <c r="KK42" s="3">
-        <v>344.28</v>
+        <v>365.98</v>
+      </c>
+      <c r="KL42" s="3">
+        <v>354.83</v>
+      </c>
+      <c r="KM42" s="3">
+        <v>339.99</v>
+      </c>
+      <c r="KN42" s="3">
+        <v>329.01</v>
+      </c>
+      <c r="KO42" s="3">
+        <v>300.63</v>
+      </c>
+      <c r="KP42" s="3">
+        <v>342.28</v>
+      </c>
+      <c r="KQ42" s="3">
+        <v>338.9</v>
+      </c>
+      <c r="KR42" s="3">
+        <v>340.83</v>
+      </c>
+      <c r="KS42" s="3">
+        <v>351.7</v>
+      </c>
+      <c r="KT42" s="3">
+        <v>338.57</v>
+      </c>
+      <c r="KU42" s="3">
+        <v>363.67</v>
+      </c>
+      <c r="KV42" s="3">
+        <v>247.45</v>
+      </c>
+      <c r="KW42" s="3">
+        <v>338.37</v>
+      </c>
+      <c r="KX42" s="3">
+        <v>375.35</v>
+      </c>
+      <c r="KY42" s="3">
+        <v>370.25</v>
+      </c>
+      <c r="KZ42" s="3">
+        <v>370.33</v>
+      </c>
+      <c r="LA42" s="3">
+        <v>366.79</v>
       </c>
     </row>
-    <row r="43" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -39310,13 +41323,61 @@
         <v>345.86</v>
       </c>
       <c r="KJ43" s="3">
-        <v>343.46</v>
+        <v>355.84</v>
       </c>
       <c r="KK43" s="3">
-        <v>346.54</v>
+        <v>369.3</v>
+      </c>
+      <c r="KL43" s="3">
+        <v>358.35</v>
+      </c>
+      <c r="KM43" s="3">
+        <v>340.1</v>
+      </c>
+      <c r="KN43" s="3">
+        <v>329.11</v>
+      </c>
+      <c r="KO43" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KP43" s="3">
+        <v>345.64</v>
+      </c>
+      <c r="KQ43" s="3">
+        <v>345.12</v>
+      </c>
+      <c r="KR43" s="3">
+        <v>344.51</v>
+      </c>
+      <c r="KS43" s="3">
+        <v>351.8</v>
+      </c>
+      <c r="KT43" s="3">
+        <v>338.47</v>
+      </c>
+      <c r="KU43" s="3">
+        <v>367.38</v>
+      </c>
+      <c r="KV43" s="3">
+        <v>304.23</v>
+      </c>
+      <c r="KW43" s="3">
+        <v>340.07</v>
+      </c>
+      <c r="KX43" s="3">
+        <v>377.5</v>
+      </c>
+      <c r="KY43" s="3">
+        <v>375.05</v>
+      </c>
+      <c r="KZ43" s="3">
+        <v>376.7</v>
+      </c>
+      <c r="LA43" s="3">
+        <v>371.55</v>
       </c>
     </row>
-    <row r="44" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -40203,13 +42264,61 @@
         <v>345.86</v>
       </c>
       <c r="KJ44" s="3">
-        <v>343.46</v>
+        <v>355.84</v>
       </c>
       <c r="KK44" s="3">
-        <v>346.54</v>
+        <v>369.3</v>
+      </c>
+      <c r="KL44" s="3">
+        <v>358.35</v>
+      </c>
+      <c r="KM44" s="3">
+        <v>340.1</v>
+      </c>
+      <c r="KN44" s="3">
+        <v>329.12</v>
+      </c>
+      <c r="KO44" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KP44" s="3">
+        <v>345.64</v>
+      </c>
+      <c r="KQ44" s="3">
+        <v>345.12</v>
+      </c>
+      <c r="KR44" s="3">
+        <v>344.51</v>
+      </c>
+      <c r="KS44" s="3">
+        <v>351.8</v>
+      </c>
+      <c r="KT44" s="3">
+        <v>338.47</v>
+      </c>
+      <c r="KU44" s="3">
+        <v>367.38</v>
+      </c>
+      <c r="KV44" s="3">
+        <v>304.23</v>
+      </c>
+      <c r="KW44" s="3">
+        <v>340.07</v>
+      </c>
+      <c r="KX44" s="3">
+        <v>377.5</v>
+      </c>
+      <c r="KY44" s="3">
+        <v>375.05</v>
+      </c>
+      <c r="KZ44" s="3">
+        <v>376.7</v>
+      </c>
+      <c r="LA44" s="3">
+        <v>371.55</v>
       </c>
     </row>
-    <row r="45" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -41096,13 +43205,61 @@
         <v>167.8</v>
       </c>
       <c r="KJ45" s="3">
-        <v>170.66</v>
+        <v>151.47999999999999</v>
       </c>
       <c r="KK45" s="3">
-        <v>173.07</v>
+        <v>160.61000000000001</v>
+      </c>
+      <c r="KL45" s="3">
+        <v>183.49</v>
+      </c>
+      <c r="KM45" s="3">
+        <v>197.44</v>
+      </c>
+      <c r="KN45" s="3">
+        <v>167.06</v>
+      </c>
+      <c r="KO45" s="3">
+        <v>137.04</v>
+      </c>
+      <c r="KP45" s="3">
+        <v>280.82</v>
+      </c>
+      <c r="KQ45" s="3">
+        <v>340.87</v>
+      </c>
+      <c r="KR45" s="3">
+        <v>333.44</v>
+      </c>
+      <c r="KS45" s="3">
+        <v>199.34</v>
+      </c>
+      <c r="KT45" s="3">
+        <v>191.12</v>
+      </c>
+      <c r="KU45" s="3">
+        <v>191.35</v>
+      </c>
+      <c r="KV45" s="3">
+        <v>164.46</v>
+      </c>
+      <c r="KW45" s="3">
+        <v>188.47</v>
+      </c>
+      <c r="KX45" s="3">
+        <v>377.5</v>
+      </c>
+      <c r="KY45" s="3">
+        <v>375.05</v>
+      </c>
+      <c r="KZ45" s="3">
+        <v>227.66</v>
+      </c>
+      <c r="LA45" s="3">
+        <v>167.58</v>
       </c>
     </row>
-    <row r="46" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>10</v>
       </c>
@@ -41989,13 +44146,61 @@
         <v>345.86</v>
       </c>
       <c r="KJ46" s="3">
-        <v>343.46</v>
+        <v>355.84</v>
       </c>
       <c r="KK46" s="3">
-        <v>346.54</v>
+        <v>369.3</v>
+      </c>
+      <c r="KL46" s="3">
+        <v>358.35</v>
+      </c>
+      <c r="KM46" s="3">
+        <v>340.1</v>
+      </c>
+      <c r="KN46" s="3">
+        <v>329.11</v>
+      </c>
+      <c r="KO46" s="3">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="KP46" s="3">
+        <v>345.64</v>
+      </c>
+      <c r="KQ46" s="3">
+        <v>345.12</v>
+      </c>
+      <c r="KR46" s="3">
+        <v>344.51</v>
+      </c>
+      <c r="KS46" s="3">
+        <v>351.8</v>
+      </c>
+      <c r="KT46" s="3">
+        <v>338.47</v>
+      </c>
+      <c r="KU46" s="3">
+        <v>367.38</v>
+      </c>
+      <c r="KV46" s="3">
+        <v>304.23</v>
+      </c>
+      <c r="KW46" s="3">
+        <v>340.07</v>
+      </c>
+      <c r="KX46" s="3">
+        <v>377.5</v>
+      </c>
+      <c r="KY46" s="3">
+        <v>375.05</v>
+      </c>
+      <c r="KZ46" s="3">
+        <v>376.7</v>
+      </c>
+      <c r="LA46" s="3">
+        <v>371.55</v>
       </c>
     </row>
-    <row r="47" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>11</v>
       </c>
@@ -42882,13 +45087,61 @@
         <v>345.15</v>
       </c>
       <c r="KJ47" s="3">
-        <v>343.2</v>
+        <v>354.76</v>
       </c>
       <c r="KK47" s="3">
-        <v>346.2</v>
+        <v>366.81</v>
+      </c>
+      <c r="KL47" s="3">
+        <v>357.48</v>
+      </c>
+      <c r="KM47" s="3">
+        <v>340</v>
+      </c>
+      <c r="KN47" s="3">
+        <v>329.13</v>
+      </c>
+      <c r="KO47" s="3">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="KP47" s="3">
+        <v>344.78</v>
+      </c>
+      <c r="KQ47" s="3">
+        <v>344.58</v>
+      </c>
+      <c r="KR47" s="3">
+        <v>344.11</v>
+      </c>
+      <c r="KS47" s="3">
+        <v>352.04</v>
+      </c>
+      <c r="KT47" s="3">
+        <v>338.38</v>
+      </c>
+      <c r="KU47" s="3">
+        <v>367.66</v>
+      </c>
+      <c r="KV47" s="3">
+        <v>316.5</v>
+      </c>
+      <c r="KW47" s="3">
+        <v>348.84</v>
+      </c>
+      <c r="KX47" s="3">
+        <v>376.8</v>
+      </c>
+      <c r="KY47" s="3">
+        <v>373.99</v>
+      </c>
+      <c r="KZ47" s="3">
+        <v>375.32</v>
+      </c>
+      <c r="LA47" s="3">
+        <v>370.89</v>
       </c>
     </row>
-    <row r="48" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>11</v>
       </c>
@@ -43775,13 +46028,61 @@
         <v>345.15</v>
       </c>
       <c r="KJ48" s="3">
-        <v>343.2</v>
+        <v>354.76</v>
       </c>
       <c r="KK48" s="3">
-        <v>346.2</v>
+        <v>366.81</v>
+      </c>
+      <c r="KL48" s="3">
+        <v>357.48</v>
+      </c>
+      <c r="KM48" s="3">
+        <v>340</v>
+      </c>
+      <c r="KN48" s="3">
+        <v>329.13</v>
+      </c>
+      <c r="KO48" s="3">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="KP48" s="3">
+        <v>344.78</v>
+      </c>
+      <c r="KQ48" s="3">
+        <v>344.58</v>
+      </c>
+      <c r="KR48" s="3">
+        <v>344.11</v>
+      </c>
+      <c r="KS48" s="3">
+        <v>352.04</v>
+      </c>
+      <c r="KT48" s="3">
+        <v>338.38</v>
+      </c>
+      <c r="KU48" s="3">
+        <v>367.66</v>
+      </c>
+      <c r="KV48" s="3">
+        <v>316.5</v>
+      </c>
+      <c r="KW48" s="3">
+        <v>348.84</v>
+      </c>
+      <c r="KX48" s="3">
+        <v>376.8</v>
+      </c>
+      <c r="KY48" s="3">
+        <v>373.99</v>
+      </c>
+      <c r="KZ48" s="3">
+        <v>375.32</v>
+      </c>
+      <c r="LA48" s="3">
+        <v>370.89</v>
       </c>
     </row>
-    <row r="49" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>11</v>
       </c>
@@ -44668,13 +46969,61 @@
         <v>168.72</v>
       </c>
       <c r="KJ49" s="3">
-        <v>174.53</v>
+        <v>166.45</v>
       </c>
       <c r="KK49" s="3">
-        <v>178.36</v>
+        <v>183.33</v>
+      </c>
+      <c r="KL49" s="3">
+        <v>199.86</v>
+      </c>
+      <c r="KM49" s="3">
+        <v>212.09</v>
+      </c>
+      <c r="KN49" s="3">
+        <v>169.39</v>
+      </c>
+      <c r="KO49" s="3">
+        <v>151.5</v>
+      </c>
+      <c r="KP49" s="3">
+        <v>289.69</v>
+      </c>
+      <c r="KQ49" s="3">
+        <v>340.75</v>
+      </c>
+      <c r="KR49" s="3">
+        <v>333.5</v>
+      </c>
+      <c r="KS49" s="3">
+        <v>199.24</v>
+      </c>
+      <c r="KT49" s="3">
+        <v>199.44</v>
+      </c>
+      <c r="KU49" s="3">
+        <v>204.69</v>
+      </c>
+      <c r="KV49" s="3">
+        <v>165.22</v>
+      </c>
+      <c r="KW49" s="3">
+        <v>185.81</v>
+      </c>
+      <c r="KX49" s="3">
+        <v>376.8</v>
+      </c>
+      <c r="KY49" s="3">
+        <v>373.99</v>
+      </c>
+      <c r="KZ49" s="3">
+        <v>233.09</v>
+      </c>
+      <c r="LA49" s="3">
+        <v>170.34</v>
       </c>
     </row>
-    <row r="50" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>11</v>
       </c>
@@ -45561,13 +47910,61 @@
         <v>345.15</v>
       </c>
       <c r="KJ50" s="3">
-        <v>343.2</v>
+        <v>354.76</v>
       </c>
       <c r="KK50" s="3">
-        <v>346.2</v>
+        <v>366.81</v>
+      </c>
+      <c r="KL50" s="3">
+        <v>357.48</v>
+      </c>
+      <c r="KM50" s="3">
+        <v>340</v>
+      </c>
+      <c r="KN50" s="3">
+        <v>329.13</v>
+      </c>
+      <c r="KO50" s="3">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="KP50" s="3">
+        <v>344.78</v>
+      </c>
+      <c r="KQ50" s="3">
+        <v>344.58</v>
+      </c>
+      <c r="KR50" s="3">
+        <v>344.11</v>
+      </c>
+      <c r="KS50" s="3">
+        <v>352.04</v>
+      </c>
+      <c r="KT50" s="3">
+        <v>338.38</v>
+      </c>
+      <c r="KU50" s="3">
+        <v>367.66</v>
+      </c>
+      <c r="KV50" s="3">
+        <v>316.5</v>
+      </c>
+      <c r="KW50" s="3">
+        <v>348.84</v>
+      </c>
+      <c r="KX50" s="3">
+        <v>376.8</v>
+      </c>
+      <c r="KY50" s="3">
+        <v>373.99</v>
+      </c>
+      <c r="KZ50" s="3">
+        <v>375.32</v>
+      </c>
+      <c r="LA50" s="3">
+        <v>370.89</v>
       </c>
     </row>
-    <row r="51" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>12</v>
       </c>
@@ -46454,13 +48851,61 @@
         <v>340.98</v>
       </c>
       <c r="KJ51" s="3">
-        <v>338.58</v>
+        <v>348.84</v>
       </c>
       <c r="KK51" s="3">
-        <v>344.76</v>
+        <v>364.46</v>
+      </c>
+      <c r="KL51" s="3">
+        <v>353.55</v>
+      </c>
+      <c r="KM51" s="3">
+        <v>339.77</v>
+      </c>
+      <c r="KN51" s="3">
+        <v>329.12</v>
+      </c>
+      <c r="KO51" s="3">
+        <v>304.42</v>
+      </c>
+      <c r="KP51" s="3">
+        <v>342.24</v>
+      </c>
+      <c r="KQ51" s="3">
+        <v>340.62</v>
+      </c>
+      <c r="KR51" s="3">
+        <v>341.89</v>
+      </c>
+      <c r="KS51" s="3">
+        <v>351.41</v>
+      </c>
+      <c r="KT51" s="3">
+        <v>336.01</v>
+      </c>
+      <c r="KU51" s="3">
+        <v>366.6</v>
+      </c>
+      <c r="KV51" s="3">
+        <v>314.33999999999997</v>
+      </c>
+      <c r="KW51" s="3">
+        <v>348.81</v>
+      </c>
+      <c r="KX51" s="3">
+        <v>376.34</v>
+      </c>
+      <c r="KY51" s="3">
+        <v>370.42</v>
+      </c>
+      <c r="KZ51" s="3">
+        <v>372.27</v>
+      </c>
+      <c r="LA51" s="3">
+        <v>366.73</v>
       </c>
     </row>
-    <row r="52" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>12</v>
       </c>
@@ -47347,13 +49792,61 @@
         <v>340.98</v>
       </c>
       <c r="KJ52" s="3">
-        <v>338.58</v>
+        <v>348.84</v>
       </c>
       <c r="KK52" s="3">
-        <v>344.76</v>
+        <v>364.46</v>
+      </c>
+      <c r="KL52" s="3">
+        <v>353.55</v>
+      </c>
+      <c r="KM52" s="3">
+        <v>339.77</v>
+      </c>
+      <c r="KN52" s="3">
+        <v>329.12</v>
+      </c>
+      <c r="KO52" s="3">
+        <v>304.42</v>
+      </c>
+      <c r="KP52" s="3">
+        <v>342.24</v>
+      </c>
+      <c r="KQ52" s="3">
+        <v>340.62</v>
+      </c>
+      <c r="KR52" s="3">
+        <v>341.89</v>
+      </c>
+      <c r="KS52" s="3">
+        <v>351.41</v>
+      </c>
+      <c r="KT52" s="3">
+        <v>336.01</v>
+      </c>
+      <c r="KU52" s="3">
+        <v>366.6</v>
+      </c>
+      <c r="KV52" s="3">
+        <v>314.33999999999997</v>
+      </c>
+      <c r="KW52" s="3">
+        <v>348.81</v>
+      </c>
+      <c r="KX52" s="3">
+        <v>376.34</v>
+      </c>
+      <c r="KY52" s="3">
+        <v>370.42</v>
+      </c>
+      <c r="KZ52" s="3">
+        <v>372.27</v>
+      </c>
+      <c r="LA52" s="3">
+        <v>366.73</v>
       </c>
     </row>
-    <row r="53" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -48240,13 +50733,61 @@
         <v>169.77</v>
       </c>
       <c r="KJ53" s="3">
-        <v>177.45</v>
+        <v>170.68</v>
       </c>
       <c r="KK53" s="3">
-        <v>180.79</v>
+        <v>185.22</v>
+      </c>
+      <c r="KL53" s="3">
+        <v>205.87</v>
+      </c>
+      <c r="KM53" s="3">
+        <v>214.73</v>
+      </c>
+      <c r="KN53" s="3">
+        <v>167.9</v>
+      </c>
+      <c r="KO53" s="3">
+        <v>161.88</v>
+      </c>
+      <c r="KP53" s="3">
+        <v>295.61</v>
+      </c>
+      <c r="KQ53" s="3">
+        <v>340.62</v>
+      </c>
+      <c r="KR53" s="3">
+        <v>333.37</v>
+      </c>
+      <c r="KS53" s="3">
+        <v>198.53</v>
+      </c>
+      <c r="KT53" s="3">
+        <v>201.4</v>
+      </c>
+      <c r="KU53" s="3">
+        <v>182.93</v>
+      </c>
+      <c r="KV53" s="3">
+        <v>167.4</v>
+      </c>
+      <c r="KW53" s="3">
+        <v>184.97</v>
+      </c>
+      <c r="KX53" s="3">
+        <v>246.99</v>
+      </c>
+      <c r="KY53" s="3">
+        <v>370.42</v>
+      </c>
+      <c r="KZ53" s="3">
+        <v>229.9</v>
+      </c>
+      <c r="LA53" s="3">
+        <v>170.32</v>
       </c>
     </row>
-    <row r="54" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>12</v>
       </c>
@@ -49133,13 +51674,61 @@
         <v>340.98</v>
       </c>
       <c r="KJ54" s="3">
-        <v>338.58</v>
+        <v>348.84</v>
       </c>
       <c r="KK54" s="3">
-        <v>344.76</v>
+        <v>364.46</v>
+      </c>
+      <c r="KL54" s="3">
+        <v>353.55</v>
+      </c>
+      <c r="KM54" s="3">
+        <v>339.77</v>
+      </c>
+      <c r="KN54" s="3">
+        <v>329.12</v>
+      </c>
+      <c r="KO54" s="3">
+        <v>304.42</v>
+      </c>
+      <c r="KP54" s="3">
+        <v>342.24</v>
+      </c>
+      <c r="KQ54" s="3">
+        <v>340.62</v>
+      </c>
+      <c r="KR54" s="3">
+        <v>341.89</v>
+      </c>
+      <c r="KS54" s="3">
+        <v>351.41</v>
+      </c>
+      <c r="KT54" s="3">
+        <v>336.01</v>
+      </c>
+      <c r="KU54" s="3">
+        <v>366.6</v>
+      </c>
+      <c r="KV54" s="3">
+        <v>314.33999999999997</v>
+      </c>
+      <c r="KW54" s="3">
+        <v>348.81</v>
+      </c>
+      <c r="KX54" s="3">
+        <v>376.34</v>
+      </c>
+      <c r="KY54" s="3">
+        <v>370.42</v>
+      </c>
+      <c r="KZ54" s="3">
+        <v>372.27</v>
+      </c>
+      <c r="LA54" s="3">
+        <v>366.73</v>
       </c>
     </row>
-    <row r="55" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>13</v>
       </c>
@@ -50026,13 +52615,61 @@
         <v>347.46</v>
       </c>
       <c r="KJ55" s="3">
-        <v>344.92</v>
+        <v>358.79</v>
       </c>
       <c r="KK55" s="3">
-        <v>348.14</v>
+        <v>372.69</v>
+      </c>
+      <c r="KL55" s="3">
+        <v>361.76</v>
+      </c>
+      <c r="KM55" s="3">
+        <v>339.82</v>
+      </c>
+      <c r="KN55" s="3">
+        <v>329.13</v>
+      </c>
+      <c r="KO55" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KP55" s="3">
+        <v>348.85</v>
+      </c>
+      <c r="KQ55" s="3">
+        <v>345.43</v>
+      </c>
+      <c r="KR55" s="3">
+        <v>344.24</v>
+      </c>
+      <c r="KS55" s="3">
+        <v>354.3</v>
+      </c>
+      <c r="KT55" s="3">
+        <v>338.2</v>
+      </c>
+      <c r="KU55" s="3">
+        <v>364.75</v>
+      </c>
+      <c r="KV55" s="3">
+        <v>313.52</v>
+      </c>
+      <c r="KW55" s="3">
+        <v>348.24</v>
+      </c>
+      <c r="KX55" s="3">
+        <v>379.74</v>
+      </c>
+      <c r="KY55" s="3">
+        <v>379.13</v>
+      </c>
+      <c r="KZ55" s="3">
+        <v>379.32</v>
+      </c>
+      <c r="LA55" s="3">
+        <v>374.42</v>
       </c>
     </row>
-    <row r="56" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>13</v>
       </c>
@@ -50919,13 +53556,61 @@
         <v>347.46</v>
       </c>
       <c r="KJ56" s="3">
-        <v>344.92</v>
+        <v>358.79</v>
       </c>
       <c r="KK56" s="3">
-        <v>348.14</v>
+        <v>372.69</v>
+      </c>
+      <c r="KL56" s="3">
+        <v>361.76</v>
+      </c>
+      <c r="KM56" s="3">
+        <v>339.82</v>
+      </c>
+      <c r="KN56" s="3">
+        <v>329.14</v>
+      </c>
+      <c r="KO56" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KP56" s="3">
+        <v>348.85</v>
+      </c>
+      <c r="KQ56" s="3">
+        <v>345.43</v>
+      </c>
+      <c r="KR56" s="3">
+        <v>344.24</v>
+      </c>
+      <c r="KS56" s="3">
+        <v>354.3</v>
+      </c>
+      <c r="KT56" s="3">
+        <v>338.2</v>
+      </c>
+      <c r="KU56" s="3">
+        <v>364.75</v>
+      </c>
+      <c r="KV56" s="3">
+        <v>313.52</v>
+      </c>
+      <c r="KW56" s="3">
+        <v>348.24</v>
+      </c>
+      <c r="KX56" s="3">
+        <v>379.74</v>
+      </c>
+      <c r="KY56" s="3">
+        <v>379.13</v>
+      </c>
+      <c r="KZ56" s="3">
+        <v>379.32</v>
+      </c>
+      <c r="LA56" s="3">
+        <v>374.42</v>
       </c>
     </row>
-    <row r="57" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>13</v>
       </c>
@@ -51812,13 +54497,61 @@
         <v>179.34</v>
       </c>
       <c r="KJ57" s="3">
-        <v>181.23</v>
+        <v>187.65</v>
       </c>
       <c r="KK57" s="3">
-        <v>185.05</v>
+        <v>190.13</v>
+      </c>
+      <c r="KL57" s="3">
+        <v>217.05</v>
+      </c>
+      <c r="KM57" s="3">
+        <v>221.9</v>
+      </c>
+      <c r="KN57" s="3">
+        <v>168.26</v>
+      </c>
+      <c r="KO57" s="3">
+        <v>164.04</v>
+      </c>
+      <c r="KP57" s="3">
+        <v>304.74</v>
+      </c>
+      <c r="KQ57" s="3">
+        <v>345.43</v>
+      </c>
+      <c r="KR57" s="3">
+        <v>337.37</v>
+      </c>
+      <c r="KS57" s="3">
+        <v>252.12</v>
+      </c>
+      <c r="KT57" s="3">
+        <v>308.04000000000002</v>
+      </c>
+      <c r="KU57" s="3">
+        <v>182.62</v>
+      </c>
+      <c r="KV57" s="3">
+        <v>170.23</v>
+      </c>
+      <c r="KW57" s="3">
+        <v>187.21</v>
+      </c>
+      <c r="KX57" s="3">
+        <v>379.74</v>
+      </c>
+      <c r="KY57" s="3">
+        <v>379.13</v>
+      </c>
+      <c r="KZ57" s="3">
+        <v>379.32</v>
+      </c>
+      <c r="LA57" s="3">
+        <v>198.38</v>
       </c>
     </row>
-    <row r="58" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>13</v>
       </c>
@@ -52705,13 +55438,61 @@
         <v>347.46</v>
       </c>
       <c r="KJ58" s="3">
-        <v>344.92</v>
+        <v>358.79</v>
       </c>
       <c r="KK58" s="3">
-        <v>348.14</v>
+        <v>372.69</v>
+      </c>
+      <c r="KL58" s="3">
+        <v>361.76</v>
+      </c>
+      <c r="KM58" s="3">
+        <v>339.82</v>
+      </c>
+      <c r="KN58" s="3">
+        <v>329.13</v>
+      </c>
+      <c r="KO58" s="3">
+        <v>303.99</v>
+      </c>
+      <c r="KP58" s="3">
+        <v>348.85</v>
+      </c>
+      <c r="KQ58" s="3">
+        <v>345.43</v>
+      </c>
+      <c r="KR58" s="3">
+        <v>344.24</v>
+      </c>
+      <c r="KS58" s="3">
+        <v>354.3</v>
+      </c>
+      <c r="KT58" s="3">
+        <v>338.2</v>
+      </c>
+      <c r="KU58" s="3">
+        <v>364.75</v>
+      </c>
+      <c r="KV58" s="3">
+        <v>313.52</v>
+      </c>
+      <c r="KW58" s="3">
+        <v>348.24</v>
+      </c>
+      <c r="KX58" s="3">
+        <v>379.74</v>
+      </c>
+      <c r="KY58" s="3">
+        <v>379.13</v>
+      </c>
+      <c r="KZ58" s="3">
+        <v>379.32</v>
+      </c>
+      <c r="LA58" s="3">
+        <v>374.42</v>
       </c>
     </row>
-    <row r="59" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>14</v>
       </c>
@@ -53598,13 +56379,61 @@
         <v>348.19</v>
       </c>
       <c r="KJ59" s="3">
-        <v>348.35</v>
+        <v>365.48</v>
       </c>
       <c r="KK59" s="3">
-        <v>348.62</v>
+        <v>372.59</v>
+      </c>
+      <c r="KL59" s="3">
+        <v>362</v>
+      </c>
+      <c r="KM59" s="3">
+        <v>344.26</v>
+      </c>
+      <c r="KN59" s="3">
+        <v>329.14</v>
+      </c>
+      <c r="KO59" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="KP59" s="3">
+        <v>349.34</v>
+      </c>
+      <c r="KQ59" s="3">
+        <v>351.5</v>
+      </c>
+      <c r="KR59" s="3">
+        <v>344.47</v>
+      </c>
+      <c r="KS59" s="3">
+        <v>356.27</v>
+      </c>
+      <c r="KT59" s="3">
+        <v>338.11</v>
+      </c>
+      <c r="KU59" s="3">
+        <v>365.2</v>
+      </c>
+      <c r="KV59" s="3">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="KW59" s="3">
+        <v>351.3</v>
+      </c>
+      <c r="KX59" s="3">
+        <v>383.61</v>
+      </c>
+      <c r="KY59" s="3">
+        <v>386.48</v>
+      </c>
+      <c r="KZ59" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA59" s="3">
+        <v>379.98</v>
       </c>
     </row>
-    <row r="60" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>14</v>
       </c>
@@ -54491,13 +57320,61 @@
         <v>348.19</v>
       </c>
       <c r="KJ60" s="3">
-        <v>348.35</v>
+        <v>365.48</v>
       </c>
       <c r="KK60" s="3">
-        <v>348.62</v>
+        <v>372.59</v>
+      </c>
+      <c r="KL60" s="3">
+        <v>362</v>
+      </c>
+      <c r="KM60" s="3">
+        <v>344.26</v>
+      </c>
+      <c r="KN60" s="3">
+        <v>329.14</v>
+      </c>
+      <c r="KO60" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="KP60" s="3">
+        <v>349.34</v>
+      </c>
+      <c r="KQ60" s="3">
+        <v>351.5</v>
+      </c>
+      <c r="KR60" s="3">
+        <v>344.47</v>
+      </c>
+      <c r="KS60" s="3">
+        <v>356.27</v>
+      </c>
+      <c r="KT60" s="3">
+        <v>338.11</v>
+      </c>
+      <c r="KU60" s="3">
+        <v>365.2</v>
+      </c>
+      <c r="KV60" s="3">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="KW60" s="3">
+        <v>351.3</v>
+      </c>
+      <c r="KX60" s="3">
+        <v>383.61</v>
+      </c>
+      <c r="KY60" s="3">
+        <v>386.48</v>
+      </c>
+      <c r="KZ60" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA60" s="3">
+        <v>379.98</v>
       </c>
     </row>
-    <row r="61" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>14</v>
       </c>
@@ -55384,13 +58261,61 @@
         <v>188</v>
       </c>
       <c r="KJ61" s="3">
-        <v>185.56</v>
+        <v>188.07</v>
       </c>
       <c r="KK61" s="3">
-        <v>205.42</v>
+        <v>208.01</v>
+      </c>
+      <c r="KL61" s="3">
+        <v>233.88</v>
+      </c>
+      <c r="KM61" s="3">
+        <v>226.98</v>
+      </c>
+      <c r="KN61" s="3">
+        <v>168.62</v>
+      </c>
+      <c r="KO61" s="3">
+        <v>166.05</v>
+      </c>
+      <c r="KP61" s="3">
+        <v>328.48</v>
+      </c>
+      <c r="KQ61" s="3">
+        <v>351.5</v>
+      </c>
+      <c r="KR61" s="3">
+        <v>344.47</v>
+      </c>
+      <c r="KS61" s="3">
+        <v>263.57</v>
+      </c>
+      <c r="KT61" s="3">
+        <v>338.11</v>
+      </c>
+      <c r="KU61" s="3">
+        <v>193.26</v>
+      </c>
+      <c r="KV61" s="3">
+        <v>169.9</v>
+      </c>
+      <c r="KW61" s="3">
+        <v>188.37</v>
+      </c>
+      <c r="KX61" s="3">
+        <v>383.61</v>
+      </c>
+      <c r="KY61" s="3">
+        <v>386.48</v>
+      </c>
+      <c r="KZ61" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA61" s="3">
+        <v>210.38</v>
       </c>
     </row>
-    <row r="62" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>14</v>
       </c>
@@ -56277,13 +59202,61 @@
         <v>348.19</v>
       </c>
       <c r="KJ62" s="3">
-        <v>348.35</v>
+        <v>365.48</v>
       </c>
       <c r="KK62" s="3">
-        <v>348.62</v>
+        <v>372.59</v>
+      </c>
+      <c r="KL62" s="3">
+        <v>362</v>
+      </c>
+      <c r="KM62" s="3">
+        <v>344.26</v>
+      </c>
+      <c r="KN62" s="3">
+        <v>329.14</v>
+      </c>
+      <c r="KO62" s="3">
+        <v>303.08999999999997</v>
+      </c>
+      <c r="KP62" s="3">
+        <v>349.34</v>
+      </c>
+      <c r="KQ62" s="3">
+        <v>351.5</v>
+      </c>
+      <c r="KR62" s="3">
+        <v>344.47</v>
+      </c>
+      <c r="KS62" s="3">
+        <v>356.27</v>
+      </c>
+      <c r="KT62" s="3">
+        <v>338.11</v>
+      </c>
+      <c r="KU62" s="3">
+        <v>365.2</v>
+      </c>
+      <c r="KV62" s="3">
+        <v>314.64999999999998</v>
+      </c>
+      <c r="KW62" s="3">
+        <v>351.3</v>
+      </c>
+      <c r="KX62" s="3">
+        <v>383.61</v>
+      </c>
+      <c r="KY62" s="3">
+        <v>386.48</v>
+      </c>
+      <c r="KZ62" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA62" s="3">
+        <v>379.98</v>
       </c>
     </row>
-    <row r="63" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>15</v>
       </c>
@@ -57170,13 +60143,61 @@
         <v>348.1</v>
       </c>
       <c r="KJ63" s="3">
-        <v>348.25</v>
+        <v>365.39</v>
       </c>
       <c r="KK63" s="3">
-        <v>348.52</v>
+        <v>372.49</v>
+      </c>
+      <c r="KL63" s="3">
+        <v>361.9</v>
+      </c>
+      <c r="KM63" s="3">
+        <v>344.82</v>
+      </c>
+      <c r="KN63" s="3">
+        <v>329.16</v>
+      </c>
+      <c r="KO63" s="3">
+        <v>303.36</v>
+      </c>
+      <c r="KP63" s="3">
+        <v>349.24</v>
+      </c>
+      <c r="KQ63" s="3">
+        <v>351.23</v>
+      </c>
+      <c r="KR63" s="3">
+        <v>344.69</v>
+      </c>
+      <c r="KS63" s="3">
+        <v>356.63</v>
+      </c>
+      <c r="KT63" s="3">
+        <v>338.6</v>
+      </c>
+      <c r="KU63" s="3">
+        <v>365.93</v>
+      </c>
+      <c r="KV63" s="3">
+        <v>333.7</v>
+      </c>
+      <c r="KW63" s="3">
+        <v>353.92</v>
+      </c>
+      <c r="KX63" s="3">
+        <v>384.34</v>
+      </c>
+      <c r="KY63" s="3">
+        <v>387.46</v>
+      </c>
+      <c r="KZ63" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA63" s="3">
+        <v>381.04</v>
       </c>
     </row>
-    <row r="64" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>15</v>
       </c>
@@ -58063,13 +61084,61 @@
         <v>348.1</v>
       </c>
       <c r="KJ64" s="3">
-        <v>348.25</v>
+        <v>365.39</v>
       </c>
       <c r="KK64" s="3">
-        <v>348.52</v>
+        <v>372.49</v>
+      </c>
+      <c r="KL64" s="3">
+        <v>361.9</v>
+      </c>
+      <c r="KM64" s="3">
+        <v>344.82</v>
+      </c>
+      <c r="KN64" s="3">
+        <v>329.16</v>
+      </c>
+      <c r="KO64" s="3">
+        <v>303.36</v>
+      </c>
+      <c r="KP64" s="3">
+        <v>349.24</v>
+      </c>
+      <c r="KQ64" s="3">
+        <v>351.23</v>
+      </c>
+      <c r="KR64" s="3">
+        <v>344.69</v>
+      </c>
+      <c r="KS64" s="3">
+        <v>356.63</v>
+      </c>
+      <c r="KT64" s="3">
+        <v>338.6</v>
+      </c>
+      <c r="KU64" s="3">
+        <v>365.93</v>
+      </c>
+      <c r="KV64" s="3">
+        <v>333.7</v>
+      </c>
+      <c r="KW64" s="3">
+        <v>353.92</v>
+      </c>
+      <c r="KX64" s="3">
+        <v>384.34</v>
+      </c>
+      <c r="KY64" s="3">
+        <v>387.46</v>
+      </c>
+      <c r="KZ64" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA64" s="3">
+        <v>381.04</v>
       </c>
     </row>
-    <row r="65" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>15</v>
       </c>
@@ -58956,13 +62025,61 @@
         <v>171.37</v>
       </c>
       <c r="KJ65" s="3">
-        <v>185.79</v>
+        <v>188.1</v>
       </c>
       <c r="KK65" s="3">
-        <v>205.39</v>
+        <v>207.94</v>
+      </c>
+      <c r="KL65" s="3">
+        <v>238.68</v>
+      </c>
+      <c r="KM65" s="3">
+        <v>226.87</v>
+      </c>
+      <c r="KN65" s="3">
+        <v>167.52</v>
+      </c>
+      <c r="KO65" s="3">
+        <v>166.01</v>
+      </c>
+      <c r="KP65" s="3">
+        <v>349.24</v>
+      </c>
+      <c r="KQ65" s="3">
+        <v>351.23</v>
+      </c>
+      <c r="KR65" s="3">
+        <v>344.69</v>
+      </c>
+      <c r="KS65" s="3">
+        <v>263.5</v>
+      </c>
+      <c r="KT65" s="3">
+        <v>336.52</v>
+      </c>
+      <c r="KU65" s="3">
+        <v>203.96</v>
+      </c>
+      <c r="KV65" s="3">
+        <v>168.77</v>
+      </c>
+      <c r="KW65" s="3">
+        <v>187.14</v>
+      </c>
+      <c r="KX65" s="3">
+        <v>384.34</v>
+      </c>
+      <c r="KY65" s="3">
+        <v>387.46</v>
+      </c>
+      <c r="KZ65" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA65" s="3">
+        <v>210.63</v>
       </c>
     </row>
-    <row r="66" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>15</v>
       </c>
@@ -59849,13 +62966,61 @@
         <v>348.1</v>
       </c>
       <c r="KJ66" s="3">
-        <v>348.25</v>
+        <v>365.39</v>
       </c>
       <c r="KK66" s="3">
-        <v>348.52</v>
+        <v>372.49</v>
+      </c>
+      <c r="KL66" s="3">
+        <v>361.9</v>
+      </c>
+      <c r="KM66" s="3">
+        <v>344.82</v>
+      </c>
+      <c r="KN66" s="3">
+        <v>329.16</v>
+      </c>
+      <c r="KO66" s="3">
+        <v>303.36</v>
+      </c>
+      <c r="KP66" s="3">
+        <v>349.24</v>
+      </c>
+      <c r="KQ66" s="3">
+        <v>351.23</v>
+      </c>
+      <c r="KR66" s="3">
+        <v>344.69</v>
+      </c>
+      <c r="KS66" s="3">
+        <v>356.63</v>
+      </c>
+      <c r="KT66" s="3">
+        <v>338.6</v>
+      </c>
+      <c r="KU66" s="3">
+        <v>365.93</v>
+      </c>
+      <c r="KV66" s="3">
+        <v>333.7</v>
+      </c>
+      <c r="KW66" s="3">
+        <v>353.92</v>
+      </c>
+      <c r="KX66" s="3">
+        <v>384.34</v>
+      </c>
+      <c r="KY66" s="3">
+        <v>387.46</v>
+      </c>
+      <c r="KZ66" s="3">
+        <v>384.4</v>
+      </c>
+      <c r="LA66" s="3">
+        <v>381.04</v>
       </c>
     </row>
-    <row r="67" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>16</v>
       </c>
@@ -60742,13 +63907,61 @@
         <v>348</v>
       </c>
       <c r="KJ67" s="3">
-        <v>348.16</v>
+        <v>365.29</v>
       </c>
       <c r="KK67" s="3">
-        <v>348.43</v>
+        <v>372.39</v>
+      </c>
+      <c r="KL67" s="3">
+        <v>361.81</v>
+      </c>
+      <c r="KM67" s="3">
+        <v>342.92</v>
+      </c>
+      <c r="KN67" s="3">
+        <v>329.15</v>
+      </c>
+      <c r="KO67" s="3">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="KP67" s="3">
+        <v>349.15</v>
+      </c>
+      <c r="KQ67" s="3">
+        <v>351.38</v>
+      </c>
+      <c r="KR67" s="3">
+        <v>344.3</v>
+      </c>
+      <c r="KS67" s="3">
+        <v>356.71</v>
+      </c>
+      <c r="KT67" s="3">
+        <v>340.09</v>
+      </c>
+      <c r="KU67" s="3">
+        <v>370.87</v>
+      </c>
+      <c r="KV67" s="3">
+        <v>351.29</v>
+      </c>
+      <c r="KW67" s="3">
+        <v>361.65</v>
+      </c>
+      <c r="KX67" s="3">
+        <v>384.5</v>
+      </c>
+      <c r="KY67" s="3">
+        <v>386.53</v>
+      </c>
+      <c r="KZ67" s="3">
+        <v>384.55</v>
+      </c>
+      <c r="LA67" s="3">
+        <v>379.82</v>
       </c>
     </row>
-    <row r="68" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>16</v>
       </c>
@@ -61635,13 +64848,61 @@
         <v>348</v>
       </c>
       <c r="KJ68" s="3">
-        <v>348.16</v>
+        <v>365.29</v>
       </c>
       <c r="KK68" s="3">
-        <v>348.43</v>
+        <v>372.39</v>
+      </c>
+      <c r="KL68" s="3">
+        <v>361.81</v>
+      </c>
+      <c r="KM68" s="3">
+        <v>342.92</v>
+      </c>
+      <c r="KN68" s="3">
+        <v>329.15</v>
+      </c>
+      <c r="KO68" s="3">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="KP68" s="3">
+        <v>349.15</v>
+      </c>
+      <c r="KQ68" s="3">
+        <v>351.38</v>
+      </c>
+      <c r="KR68" s="3">
+        <v>344.3</v>
+      </c>
+      <c r="KS68" s="3">
+        <v>356.71</v>
+      </c>
+      <c r="KT68" s="3">
+        <v>340.09</v>
+      </c>
+      <c r="KU68" s="3">
+        <v>370.87</v>
+      </c>
+      <c r="KV68" s="3">
+        <v>351.29</v>
+      </c>
+      <c r="KW68" s="3">
+        <v>361.65</v>
+      </c>
+      <c r="KX68" s="3">
+        <v>384.5</v>
+      </c>
+      <c r="KY68" s="3">
+        <v>386.53</v>
+      </c>
+      <c r="KZ68" s="3">
+        <v>384.55</v>
+      </c>
+      <c r="LA68" s="3">
+        <v>379.82</v>
       </c>
     </row>
-    <row r="69" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>16</v>
       </c>
@@ -62528,13 +65789,61 @@
         <v>171.41</v>
       </c>
       <c r="KJ69" s="3">
-        <v>180.96</v>
+        <v>188.14</v>
       </c>
       <c r="KK69" s="3">
-        <v>195.31</v>
+        <v>197.41</v>
+      </c>
+      <c r="KL69" s="3">
+        <v>226.35</v>
+      </c>
+      <c r="KM69" s="3">
+        <v>223.21</v>
+      </c>
+      <c r="KN69" s="3">
+        <v>167.41</v>
+      </c>
+      <c r="KO69" s="3">
+        <v>167.88</v>
+      </c>
+      <c r="KP69" s="3">
+        <v>349.15</v>
+      </c>
+      <c r="KQ69" s="3">
+        <v>351.38</v>
+      </c>
+      <c r="KR69" s="3">
+        <v>343.38</v>
+      </c>
+      <c r="KS69" s="3">
+        <v>263.44</v>
+      </c>
+      <c r="KT69" s="3">
+        <v>304.89</v>
+      </c>
+      <c r="KU69" s="3">
+        <v>212.38</v>
+      </c>
+      <c r="KV69" s="3">
+        <v>171.67</v>
+      </c>
+      <c r="KW69" s="3">
+        <v>239.82</v>
+      </c>
+      <c r="KX69" s="3">
+        <v>384.5</v>
+      </c>
+      <c r="KY69" s="3">
+        <v>386.52</v>
+      </c>
+      <c r="KZ69" s="3">
+        <v>384.55</v>
+      </c>
+      <c r="LA69" s="3">
+        <v>210.83</v>
       </c>
     </row>
-    <row r="70" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>16</v>
       </c>
@@ -63421,13 +66730,61 @@
         <v>348</v>
       </c>
       <c r="KJ70" s="3">
-        <v>348.16</v>
+        <v>365.29</v>
       </c>
       <c r="KK70" s="3">
-        <v>348.43</v>
+        <v>372.39</v>
+      </c>
+      <c r="KL70" s="3">
+        <v>361.81</v>
+      </c>
+      <c r="KM70" s="3">
+        <v>342.92</v>
+      </c>
+      <c r="KN70" s="3">
+        <v>329.15</v>
+      </c>
+      <c r="KO70" s="3">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="KP70" s="3">
+        <v>349.15</v>
+      </c>
+      <c r="KQ70" s="3">
+        <v>351.38</v>
+      </c>
+      <c r="KR70" s="3">
+        <v>344.3</v>
+      </c>
+      <c r="KS70" s="3">
+        <v>356.71</v>
+      </c>
+      <c r="KT70" s="3">
+        <v>340.09</v>
+      </c>
+      <c r="KU70" s="3">
+        <v>370.87</v>
+      </c>
+      <c r="KV70" s="3">
+        <v>351.29</v>
+      </c>
+      <c r="KW70" s="3">
+        <v>361.65</v>
+      </c>
+      <c r="KX70" s="3">
+        <v>384.5</v>
+      </c>
+      <c r="KY70" s="3">
+        <v>386.53</v>
+      </c>
+      <c r="KZ70" s="3">
+        <v>384.55</v>
+      </c>
+      <c r="LA70" s="3">
+        <v>379.82</v>
       </c>
     </row>
-    <row r="71" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>17</v>
       </c>
@@ -64314,13 +67671,61 @@
         <v>346.52</v>
       </c>
       <c r="KJ71" s="3">
-        <v>342.62</v>
+        <v>355.95</v>
       </c>
       <c r="KK71" s="3">
-        <v>346.47</v>
+        <v>369.07</v>
+      </c>
+      <c r="KL71" s="3">
+        <v>358.05</v>
+      </c>
+      <c r="KM71" s="3">
+        <v>339.45</v>
+      </c>
+      <c r="KN71" s="3">
+        <v>330.3</v>
+      </c>
+      <c r="KO71" s="3">
+        <v>325.22000000000003</v>
+      </c>
+      <c r="KP71" s="3">
+        <v>347.17</v>
+      </c>
+      <c r="KQ71" s="3">
+        <v>342.44</v>
+      </c>
+      <c r="KR71" s="3">
+        <v>343.86</v>
+      </c>
+      <c r="KS71" s="3">
+        <v>351.63</v>
+      </c>
+      <c r="KT71" s="3">
+        <v>337.84</v>
+      </c>
+      <c r="KU71" s="3">
+        <v>375.44</v>
+      </c>
+      <c r="KV71" s="3">
+        <v>361.71</v>
+      </c>
+      <c r="KW71" s="3">
+        <v>364.33</v>
+      </c>
+      <c r="KX71" s="3">
+        <v>381.13</v>
+      </c>
+      <c r="KY71" s="3">
+        <v>384.48</v>
+      </c>
+      <c r="KZ71" s="3">
+        <v>380.32</v>
+      </c>
+      <c r="LA71" s="3">
+        <v>373.94</v>
       </c>
     </row>
-    <row r="72" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>17</v>
       </c>
@@ -65207,13 +68612,61 @@
         <v>346.52</v>
       </c>
       <c r="KJ72" s="3">
-        <v>342.62</v>
+        <v>355.95</v>
       </c>
       <c r="KK72" s="3">
-        <v>346.47</v>
+        <v>369.07</v>
+      </c>
+      <c r="KL72" s="3">
+        <v>358.05</v>
+      </c>
+      <c r="KM72" s="3">
+        <v>339.45</v>
+      </c>
+      <c r="KN72" s="3">
+        <v>330.3</v>
+      </c>
+      <c r="KO72" s="3">
+        <v>325.22000000000003</v>
+      </c>
+      <c r="KP72" s="3">
+        <v>347.17</v>
+      </c>
+      <c r="KQ72" s="3">
+        <v>342.44</v>
+      </c>
+      <c r="KR72" s="3">
+        <v>343.86</v>
+      </c>
+      <c r="KS72" s="3">
+        <v>351.63</v>
+      </c>
+      <c r="KT72" s="3">
+        <v>337.84</v>
+      </c>
+      <c r="KU72" s="3">
+        <v>375.44</v>
+      </c>
+      <c r="KV72" s="3">
+        <v>361.71</v>
+      </c>
+      <c r="KW72" s="3">
+        <v>364.33</v>
+      </c>
+      <c r="KX72" s="3">
+        <v>381.13</v>
+      </c>
+      <c r="KY72" s="3">
+        <v>384.48</v>
+      </c>
+      <c r="KZ72" s="3">
+        <v>380.32</v>
+      </c>
+      <c r="LA72" s="3">
+        <v>373.94</v>
       </c>
     </row>
-    <row r="73" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>17</v>
       </c>
@@ -66100,13 +69553,61 @@
         <v>162.22999999999999</v>
       </c>
       <c r="KJ73" s="3">
-        <v>178.64</v>
+        <v>175.19</v>
       </c>
       <c r="KK73" s="3">
-        <v>187.8</v>
+        <v>192.55</v>
+      </c>
+      <c r="KL73" s="3">
+        <v>221.71</v>
+      </c>
+      <c r="KM73" s="3">
+        <v>219.98</v>
+      </c>
+      <c r="KN73" s="3">
+        <v>171.67</v>
+      </c>
+      <c r="KO73" s="3">
+        <v>192.95</v>
+      </c>
+      <c r="KP73" s="3">
+        <v>326.04000000000002</v>
+      </c>
+      <c r="KQ73" s="3">
+        <v>342.44</v>
+      </c>
+      <c r="KR73" s="3">
+        <v>332.73</v>
+      </c>
+      <c r="KS73" s="3">
+        <v>239.07</v>
+      </c>
+      <c r="KT73" s="3">
+        <v>234.91</v>
+      </c>
+      <c r="KU73" s="3">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="KV73" s="3">
+        <v>279.27</v>
+      </c>
+      <c r="KW73" s="3">
+        <v>313.87</v>
+      </c>
+      <c r="KX73" s="3">
+        <v>381.13</v>
+      </c>
+      <c r="KY73" s="3">
+        <v>384.48</v>
+      </c>
+      <c r="KZ73" s="3">
+        <v>230.82</v>
+      </c>
+      <c r="LA73" s="3">
+        <v>214.88</v>
       </c>
     </row>
-    <row r="74" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>17</v>
       </c>
@@ -66993,13 +70494,61 @@
         <v>346.52</v>
       </c>
       <c r="KJ74" s="3">
-        <v>342.62</v>
+        <v>355.95</v>
       </c>
       <c r="KK74" s="3">
-        <v>346.47</v>
+        <v>369.07</v>
+      </c>
+      <c r="KL74" s="3">
+        <v>358.05</v>
+      </c>
+      <c r="KM74" s="3">
+        <v>339.45</v>
+      </c>
+      <c r="KN74" s="3">
+        <v>330.3</v>
+      </c>
+      <c r="KO74" s="3">
+        <v>325.22000000000003</v>
+      </c>
+      <c r="KP74" s="3">
+        <v>347.17</v>
+      </c>
+      <c r="KQ74" s="3">
+        <v>342.44</v>
+      </c>
+      <c r="KR74" s="3">
+        <v>343.86</v>
+      </c>
+      <c r="KS74" s="3">
+        <v>351.63</v>
+      </c>
+      <c r="KT74" s="3">
+        <v>337.84</v>
+      </c>
+      <c r="KU74" s="3">
+        <v>375.44</v>
+      </c>
+      <c r="KV74" s="3">
+        <v>361.71</v>
+      </c>
+      <c r="KW74" s="3">
+        <v>364.33</v>
+      </c>
+      <c r="KX74" s="3">
+        <v>381.13</v>
+      </c>
+      <c r="KY74" s="3">
+        <v>384.48</v>
+      </c>
+      <c r="KZ74" s="3">
+        <v>380.32</v>
+      </c>
+      <c r="LA74" s="3">
+        <v>373.94</v>
       </c>
     </row>
-    <row r="75" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>18</v>
       </c>
@@ -67886,13 +71435,61 @@
         <v>348.05</v>
       </c>
       <c r="KJ75" s="3">
-        <v>345.77</v>
+        <v>360.89</v>
       </c>
       <c r="KK75" s="3">
-        <v>347.3</v>
+        <v>370.5</v>
+      </c>
+      <c r="KL75" s="3">
+        <v>360.11</v>
+      </c>
+      <c r="KM75" s="3">
+        <v>341.13</v>
+      </c>
+      <c r="KN75" s="3">
+        <v>344.66</v>
+      </c>
+      <c r="KO75" s="3">
+        <v>331.53</v>
+      </c>
+      <c r="KP75" s="3">
+        <v>348.89</v>
+      </c>
+      <c r="KQ75" s="3">
+        <v>348.02</v>
+      </c>
+      <c r="KR75" s="3">
+        <v>343.91</v>
+      </c>
+      <c r="KS75" s="3">
+        <v>355.59</v>
+      </c>
+      <c r="KT75" s="3">
+        <v>339.86</v>
+      </c>
+      <c r="KU75" s="3">
+        <v>384.07</v>
+      </c>
+      <c r="KV75" s="3">
+        <v>370.46</v>
+      </c>
+      <c r="KW75" s="3">
+        <v>375.98</v>
+      </c>
+      <c r="KX75" s="3">
+        <v>381.84</v>
+      </c>
+      <c r="KY75" s="3">
+        <v>386.63</v>
+      </c>
+      <c r="KZ75" s="3">
+        <v>385.91</v>
+      </c>
+      <c r="LA75" s="3">
+        <v>379.09</v>
       </c>
     </row>
-    <row r="76" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>18</v>
       </c>
@@ -68779,13 +72376,61 @@
         <v>348.05</v>
       </c>
       <c r="KJ76" s="3">
-        <v>345.77</v>
+        <v>360.89</v>
       </c>
       <c r="KK76" s="3">
-        <v>347.3</v>
+        <v>370.5</v>
+      </c>
+      <c r="KL76" s="3">
+        <v>360.11</v>
+      </c>
+      <c r="KM76" s="3">
+        <v>341.13</v>
+      </c>
+      <c r="KN76" s="3">
+        <v>344.66</v>
+      </c>
+      <c r="KO76" s="3">
+        <v>331.53</v>
+      </c>
+      <c r="KP76" s="3">
+        <v>348.89</v>
+      </c>
+      <c r="KQ76" s="3">
+        <v>348.02</v>
+      </c>
+      <c r="KR76" s="3">
+        <v>343.91</v>
+      </c>
+      <c r="KS76" s="3">
+        <v>355.59</v>
+      </c>
+      <c r="KT76" s="3">
+        <v>339.86</v>
+      </c>
+      <c r="KU76" s="3">
+        <v>384.07</v>
+      </c>
+      <c r="KV76" s="3">
+        <v>370.46</v>
+      </c>
+      <c r="KW76" s="3">
+        <v>375.98</v>
+      </c>
+      <c r="KX76" s="3">
+        <v>381.84</v>
+      </c>
+      <c r="KY76" s="3">
+        <v>386.63</v>
+      </c>
+      <c r="KZ76" s="3">
+        <v>385.91</v>
+      </c>
+      <c r="LA76" s="3">
+        <v>379.09</v>
       </c>
     </row>
-    <row r="77" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>18</v>
       </c>
@@ -69672,13 +73317,61 @@
         <v>169.6</v>
       </c>
       <c r="KJ77" s="3">
-        <v>178.91</v>
+        <v>176.91</v>
       </c>
       <c r="KK77" s="3">
-        <v>185.84</v>
+        <v>192.79</v>
+      </c>
+      <c r="KL77" s="3">
+        <v>216.43</v>
+      </c>
+      <c r="KM77" s="3">
+        <v>218.51</v>
+      </c>
+      <c r="KN77" s="3">
+        <v>183.39</v>
+      </c>
+      <c r="KO77" s="3">
+        <v>219.54</v>
+      </c>
+      <c r="KP77" s="3">
+        <v>348.89</v>
+      </c>
+      <c r="KQ77" s="3">
+        <v>348.02</v>
+      </c>
+      <c r="KR77" s="3">
+        <v>338.18</v>
+      </c>
+      <c r="KS77" s="3">
+        <v>210.8</v>
+      </c>
+      <c r="KT77" s="3">
+        <v>234.64</v>
+      </c>
+      <c r="KU77" s="3">
+        <v>384.07</v>
+      </c>
+      <c r="KV77" s="3">
+        <v>370.46</v>
+      </c>
+      <c r="KW77" s="3">
+        <v>375.98</v>
+      </c>
+      <c r="KX77" s="3">
+        <v>381.84</v>
+      </c>
+      <c r="KY77" s="3">
+        <v>386.63</v>
+      </c>
+      <c r="KZ77" s="3">
+        <v>305.31</v>
+      </c>
+      <c r="LA77" s="3">
+        <v>215.7</v>
       </c>
     </row>
-    <row r="78" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>18</v>
       </c>
@@ -70565,13 +74258,61 @@
         <v>348.05</v>
       </c>
       <c r="KJ78" s="3">
-        <v>345.77</v>
+        <v>360.89</v>
       </c>
       <c r="KK78" s="3">
-        <v>347.3</v>
+        <v>370.5</v>
+      </c>
+      <c r="KL78" s="3">
+        <v>360.11</v>
+      </c>
+      <c r="KM78" s="3">
+        <v>341.13</v>
+      </c>
+      <c r="KN78" s="3">
+        <v>344.66</v>
+      </c>
+      <c r="KO78" s="3">
+        <v>331.53</v>
+      </c>
+      <c r="KP78" s="3">
+        <v>348.89</v>
+      </c>
+      <c r="KQ78" s="3">
+        <v>348.02</v>
+      </c>
+      <c r="KR78" s="3">
+        <v>343.91</v>
+      </c>
+      <c r="KS78" s="3">
+        <v>355.59</v>
+      </c>
+      <c r="KT78" s="3">
+        <v>339.86</v>
+      </c>
+      <c r="KU78" s="3">
+        <v>384.07</v>
+      </c>
+      <c r="KV78" s="3">
+        <v>370.46</v>
+      </c>
+      <c r="KW78" s="3">
+        <v>375.98</v>
+      </c>
+      <c r="KX78" s="3">
+        <v>381.84</v>
+      </c>
+      <c r="KY78" s="3">
+        <v>386.63</v>
+      </c>
+      <c r="KZ78" s="3">
+        <v>385.91</v>
+      </c>
+      <c r="LA78" s="3">
+        <v>379.09</v>
       </c>
     </row>
-    <row r="79" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>19</v>
       </c>
@@ -71458,13 +75199,61 @@
         <v>348.02</v>
       </c>
       <c r="KJ79" s="3">
-        <v>347.83</v>
+        <v>365.01</v>
       </c>
       <c r="KK79" s="3">
-        <v>348.15</v>
+        <v>372.1</v>
+      </c>
+      <c r="KL79" s="3">
+        <v>361.52</v>
+      </c>
+      <c r="KM79" s="3">
+        <v>344.19</v>
+      </c>
+      <c r="KN79" s="3">
+        <v>347.47</v>
+      </c>
+      <c r="KO79" s="3">
+        <v>336.03</v>
+      </c>
+      <c r="KP79" s="3">
+        <v>348.87</v>
+      </c>
+      <c r="KQ79" s="3">
+        <v>352.38</v>
+      </c>
+      <c r="KR79" s="3">
+        <v>344.77</v>
+      </c>
+      <c r="KS79" s="3">
+        <v>358.94</v>
+      </c>
+      <c r="KT79" s="3">
+        <v>342.72</v>
+      </c>
+      <c r="KU79" s="3">
+        <v>387.54</v>
+      </c>
+      <c r="KV79" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="KW79" s="3">
+        <v>378.97</v>
+      </c>
+      <c r="KX79" s="3">
+        <v>384.47</v>
+      </c>
+      <c r="KY79" s="3">
+        <v>389.66</v>
+      </c>
+      <c r="KZ79" s="3">
+        <v>396.84</v>
+      </c>
+      <c r="LA79" s="3">
+        <v>386.55</v>
       </c>
     </row>
-    <row r="80" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>19</v>
       </c>
@@ -72351,13 +76140,61 @@
         <v>348.02</v>
       </c>
       <c r="KJ80" s="3">
-        <v>347.83</v>
+        <v>365.01</v>
       </c>
       <c r="KK80" s="3">
-        <v>348.15</v>
+        <v>372.1</v>
+      </c>
+      <c r="KL80" s="3">
+        <v>361.52</v>
+      </c>
+      <c r="KM80" s="3">
+        <v>344.19</v>
+      </c>
+      <c r="KN80" s="3">
+        <v>347.47</v>
+      </c>
+      <c r="KO80" s="3">
+        <v>336.03</v>
+      </c>
+      <c r="KP80" s="3">
+        <v>348.87</v>
+      </c>
+      <c r="KQ80" s="3">
+        <v>352.38</v>
+      </c>
+      <c r="KR80" s="3">
+        <v>344.77</v>
+      </c>
+      <c r="KS80" s="3">
+        <v>358.94</v>
+      </c>
+      <c r="KT80" s="3">
+        <v>342.72</v>
+      </c>
+      <c r="KU80" s="3">
+        <v>387.54</v>
+      </c>
+      <c r="KV80" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="KW80" s="3">
+        <v>378.97</v>
+      </c>
+      <c r="KX80" s="3">
+        <v>384.47</v>
+      </c>
+      <c r="KY80" s="3">
+        <v>389.66</v>
+      </c>
+      <c r="KZ80" s="3">
+        <v>396.84</v>
+      </c>
+      <c r="LA80" s="3">
+        <v>386.55</v>
       </c>
     </row>
-    <row r="81" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>19</v>
       </c>
@@ -73244,13 +77081,61 @@
         <v>143.44</v>
       </c>
       <c r="KJ81" s="3">
-        <v>177</v>
+        <v>170.09</v>
       </c>
       <c r="KK81" s="3">
-        <v>178.69</v>
+        <v>185.4</v>
+      </c>
+      <c r="KL81" s="3">
+        <v>204.95</v>
+      </c>
+      <c r="KM81" s="3">
+        <v>207.83</v>
+      </c>
+      <c r="KN81" s="3">
+        <v>179.78</v>
+      </c>
+      <c r="KO81" s="3">
+        <v>219.49</v>
+      </c>
+      <c r="KP81" s="3">
+        <v>348.86</v>
+      </c>
+      <c r="KQ81" s="3">
+        <v>347.09</v>
+      </c>
+      <c r="KR81" s="3">
+        <v>332.48</v>
+      </c>
+      <c r="KS81" s="3">
+        <v>196.07</v>
+      </c>
+      <c r="KT81" s="3">
+        <v>198.86</v>
+      </c>
+      <c r="KU81" s="3">
+        <v>387.54</v>
+      </c>
+      <c r="KV81" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="KW81" s="3">
+        <v>378.97</v>
+      </c>
+      <c r="KX81" s="3">
+        <v>244.23</v>
+      </c>
+      <c r="KY81" s="3">
+        <v>389.66</v>
+      </c>
+      <c r="KZ81" s="3">
+        <v>224.77</v>
+      </c>
+      <c r="LA81" s="3">
+        <v>200.39</v>
       </c>
     </row>
-    <row r="82" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>19</v>
       </c>
@@ -74137,13 +78022,61 @@
         <v>348.02</v>
       </c>
       <c r="KJ82" s="3">
-        <v>347.83</v>
+        <v>365.01</v>
       </c>
       <c r="KK82" s="3">
-        <v>348.15</v>
+        <v>372.1</v>
+      </c>
+      <c r="KL82" s="3">
+        <v>361.52</v>
+      </c>
+      <c r="KM82" s="3">
+        <v>344.19</v>
+      </c>
+      <c r="KN82" s="3">
+        <v>347.47</v>
+      </c>
+      <c r="KO82" s="3">
+        <v>336.03</v>
+      </c>
+      <c r="KP82" s="3">
+        <v>348.87</v>
+      </c>
+      <c r="KQ82" s="3">
+        <v>352.38</v>
+      </c>
+      <c r="KR82" s="3">
+        <v>344.77</v>
+      </c>
+      <c r="KS82" s="3">
+        <v>358.94</v>
+      </c>
+      <c r="KT82" s="3">
+        <v>342.72</v>
+      </c>
+      <c r="KU82" s="3">
+        <v>387.54</v>
+      </c>
+      <c r="KV82" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="KW82" s="3">
+        <v>378.97</v>
+      </c>
+      <c r="KX82" s="3">
+        <v>384.47</v>
+      </c>
+      <c r="KY82" s="3">
+        <v>389.66</v>
+      </c>
+      <c r="KZ82" s="3">
+        <v>396.84</v>
+      </c>
+      <c r="LA82" s="3">
+        <v>386.55</v>
       </c>
     </row>
-    <row r="83" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>20</v>
       </c>
@@ -75030,13 +78963,61 @@
         <v>347.63</v>
       </c>
       <c r="KJ83" s="3">
-        <v>346.9</v>
+        <v>362.93</v>
       </c>
       <c r="KK83" s="3">
-        <v>348.06</v>
+        <v>372</v>
+      </c>
+      <c r="KL83" s="3">
+        <v>361.35</v>
+      </c>
+      <c r="KM83" s="3">
+        <v>339.18</v>
+      </c>
+      <c r="KN83" s="3">
+        <v>340.32</v>
+      </c>
+      <c r="KO83" s="3">
+        <v>331.8</v>
+      </c>
+      <c r="KP83" s="3">
+        <v>348.66</v>
+      </c>
+      <c r="KQ83" s="3">
+        <v>346.78</v>
+      </c>
+      <c r="KR83" s="3">
+        <v>343.58</v>
+      </c>
+      <c r="KS83" s="3">
+        <v>353.78</v>
+      </c>
+      <c r="KT83" s="3">
+        <v>337.56</v>
+      </c>
+      <c r="KU83" s="3">
+        <v>381.23</v>
+      </c>
+      <c r="KV83" s="3">
+        <v>373.1</v>
+      </c>
+      <c r="KW83" s="3">
+        <v>377.57</v>
+      </c>
+      <c r="KX83" s="3">
+        <v>383.53</v>
+      </c>
+      <c r="KY83" s="3">
+        <v>385.68</v>
+      </c>
+      <c r="KZ83" s="3">
+        <v>384.97</v>
+      </c>
+      <c r="LA83" s="3">
+        <v>379.83</v>
       </c>
     </row>
-    <row r="84" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>20</v>
       </c>
@@ -75923,13 +79904,61 @@
         <v>347.63</v>
       </c>
       <c r="KJ84" s="3">
-        <v>346.9</v>
+        <v>362.93</v>
       </c>
       <c r="KK84" s="3">
-        <v>348.06</v>
+        <v>372</v>
+      </c>
+      <c r="KL84" s="3">
+        <v>361.35</v>
+      </c>
+      <c r="KM84" s="3">
+        <v>339.18</v>
+      </c>
+      <c r="KN84" s="3">
+        <v>340.32</v>
+      </c>
+      <c r="KO84" s="3">
+        <v>331.8</v>
+      </c>
+      <c r="KP84" s="3">
+        <v>348.66</v>
+      </c>
+      <c r="KQ84" s="3">
+        <v>346.78</v>
+      </c>
+      <c r="KR84" s="3">
+        <v>343.58</v>
+      </c>
+      <c r="KS84" s="3">
+        <v>353.78</v>
+      </c>
+      <c r="KT84" s="3">
+        <v>337.56</v>
+      </c>
+      <c r="KU84" s="3">
+        <v>381.23</v>
+      </c>
+      <c r="KV84" s="3">
+        <v>373.1</v>
+      </c>
+      <c r="KW84" s="3">
+        <v>377.57</v>
+      </c>
+      <c r="KX84" s="3">
+        <v>383.53</v>
+      </c>
+      <c r="KY84" s="3">
+        <v>385.68</v>
+      </c>
+      <c r="KZ84" s="3">
+        <v>384.97</v>
+      </c>
+      <c r="LA84" s="3">
+        <v>379.83</v>
       </c>
     </row>
-    <row r="85" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>20</v>
       </c>
@@ -76816,13 +80845,61 @@
         <v>142.24</v>
       </c>
       <c r="KJ85" s="3">
-        <v>173.6</v>
+        <v>164.66</v>
       </c>
       <c r="KK85" s="3">
-        <v>178.6</v>
+        <v>183.19</v>
+      </c>
+      <c r="KL85" s="3">
+        <v>197.47</v>
+      </c>
+      <c r="KM85" s="3">
+        <v>198.2</v>
+      </c>
+      <c r="KN85" s="3">
+        <v>176.19</v>
+      </c>
+      <c r="KO85" s="3">
+        <v>219.44</v>
+      </c>
+      <c r="KP85" s="3">
+        <v>348.66</v>
+      </c>
+      <c r="KQ85" s="3">
+        <v>339.59</v>
+      </c>
+      <c r="KR85" s="3">
+        <v>332.35</v>
+      </c>
+      <c r="KS85" s="3">
+        <v>194.42</v>
+      </c>
+      <c r="KT85" s="3">
+        <v>193.29</v>
+      </c>
+      <c r="KU85" s="3">
+        <v>381.23</v>
+      </c>
+      <c r="KV85" s="3">
+        <v>373.1</v>
+      </c>
+      <c r="KW85" s="3">
+        <v>377.57</v>
+      </c>
+      <c r="KX85" s="3">
+        <v>244.22</v>
+      </c>
+      <c r="KY85" s="3">
+        <v>385.68</v>
+      </c>
+      <c r="KZ85" s="3">
+        <v>212.8</v>
+      </c>
+      <c r="LA85" s="3">
+        <v>170.77</v>
       </c>
     </row>
-    <row r="86" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>20</v>
       </c>
@@ -77709,13 +81786,61 @@
         <v>347.63</v>
       </c>
       <c r="KJ86" s="3">
-        <v>346.9</v>
+        <v>362.93</v>
       </c>
       <c r="KK86" s="3">
-        <v>348.06</v>
+        <v>372</v>
+      </c>
+      <c r="KL86" s="3">
+        <v>361.35</v>
+      </c>
+      <c r="KM86" s="3">
+        <v>339.18</v>
+      </c>
+      <c r="KN86" s="3">
+        <v>340.32</v>
+      </c>
+      <c r="KO86" s="3">
+        <v>331.8</v>
+      </c>
+      <c r="KP86" s="3">
+        <v>348.66</v>
+      </c>
+      <c r="KQ86" s="3">
+        <v>346.78</v>
+      </c>
+      <c r="KR86" s="3">
+        <v>343.58</v>
+      </c>
+      <c r="KS86" s="3">
+        <v>353.78</v>
+      </c>
+      <c r="KT86" s="3">
+        <v>337.56</v>
+      </c>
+      <c r="KU86" s="3">
+        <v>381.23</v>
+      </c>
+      <c r="KV86" s="3">
+        <v>373.1</v>
+      </c>
+      <c r="KW86" s="3">
+        <v>377.57</v>
+      </c>
+      <c r="KX86" s="3">
+        <v>383.53</v>
+      </c>
+      <c r="KY86" s="3">
+        <v>385.68</v>
+      </c>
+      <c r="KZ86" s="3">
+        <v>384.97</v>
+      </c>
+      <c r="LA86" s="3">
+        <v>379.83</v>
       </c>
     </row>
-    <row r="87" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>21</v>
       </c>
@@ -78602,13 +82727,61 @@
         <v>347.49</v>
       </c>
       <c r="KJ87" s="3">
-        <v>347.03</v>
+        <v>362.67</v>
       </c>
       <c r="KK87" s="3">
-        <v>347.96</v>
+        <v>371.89</v>
+      </c>
+      <c r="KL87" s="3">
+        <v>361.22</v>
+      </c>
+      <c r="KM87" s="3">
+        <v>339.08</v>
+      </c>
+      <c r="KN87" s="3">
+        <v>334.9</v>
+      </c>
+      <c r="KO87" s="3">
+        <v>328.86</v>
+      </c>
+      <c r="KP87" s="3">
+        <v>348.68</v>
+      </c>
+      <c r="KQ87" s="3">
+        <v>347.71</v>
+      </c>
+      <c r="KR87" s="3">
+        <v>343.49</v>
+      </c>
+      <c r="KS87" s="3">
+        <v>350.52</v>
+      </c>
+      <c r="KT87" s="3">
+        <v>337.47</v>
+      </c>
+      <c r="KU87" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KV87" s="3">
+        <v>370</v>
+      </c>
+      <c r="KW87" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KX87" s="3">
+        <v>380.48</v>
+      </c>
+      <c r="KY87" s="3">
+        <v>383.39</v>
+      </c>
+      <c r="KZ87" s="3">
+        <v>382.25</v>
+      </c>
+      <c r="LA87" s="3">
+        <v>375.12</v>
       </c>
     </row>
-    <row r="88" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>21</v>
       </c>
@@ -79495,13 +83668,61 @@
         <v>347.49</v>
       </c>
       <c r="KJ88" s="3">
-        <v>347.03</v>
+        <v>362.67</v>
       </c>
       <c r="KK88" s="3">
-        <v>347.96</v>
+        <v>371.89</v>
+      </c>
+      <c r="KL88" s="3">
+        <v>361.22</v>
+      </c>
+      <c r="KM88" s="3">
+        <v>339.08</v>
+      </c>
+      <c r="KN88" s="3">
+        <v>334.9</v>
+      </c>
+      <c r="KO88" s="3">
+        <v>328.86</v>
+      </c>
+      <c r="KP88" s="3">
+        <v>348.68</v>
+      </c>
+      <c r="KQ88" s="3">
+        <v>347.71</v>
+      </c>
+      <c r="KR88" s="3">
+        <v>343.49</v>
+      </c>
+      <c r="KS88" s="3">
+        <v>350.52</v>
+      </c>
+      <c r="KT88" s="3">
+        <v>337.47</v>
+      </c>
+      <c r="KU88" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KV88" s="3">
+        <v>370</v>
+      </c>
+      <c r="KW88" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KX88" s="3">
+        <v>380.48</v>
+      </c>
+      <c r="KY88" s="3">
+        <v>383.39</v>
+      </c>
+      <c r="KZ88" s="3">
+        <v>382.25</v>
+      </c>
+      <c r="LA88" s="3">
+        <v>375.12</v>
       </c>
     </row>
-    <row r="89" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>21</v>
       </c>
@@ -80388,13 +84609,61 @@
         <v>143.44</v>
       </c>
       <c r="KJ89" s="3">
-        <v>177.27</v>
+        <v>170.59</v>
       </c>
       <c r="KK89" s="3">
+        <v>185.99</v>
+      </c>
+      <c r="KL89" s="3">
+        <v>205.77</v>
+      </c>
+      <c r="KM89" s="3">
+        <v>215.74</v>
+      </c>
+      <c r="KN89" s="3">
         <v>178.62</v>
       </c>
+      <c r="KO89" s="3">
+        <v>221.46</v>
+      </c>
+      <c r="KP89" s="3">
+        <v>348.68</v>
+      </c>
+      <c r="KQ89" s="3">
+        <v>347.71</v>
+      </c>
+      <c r="KR89" s="3">
+        <v>337.86</v>
+      </c>
+      <c r="KS89" s="3">
+        <v>196.73</v>
+      </c>
+      <c r="KT89" s="3">
+        <v>199.68</v>
+      </c>
+      <c r="KU89" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KV89" s="3">
+        <v>370</v>
+      </c>
+      <c r="KW89" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KX89" s="3">
+        <v>380.48</v>
+      </c>
+      <c r="KY89" s="3">
+        <v>383.39</v>
+      </c>
+      <c r="KZ89" s="3">
+        <v>305.62</v>
+      </c>
+      <c r="LA89" s="3">
+        <v>183.24</v>
+      </c>
     </row>
-    <row r="90" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>21</v>
       </c>
@@ -81281,13 +85550,61 @@
         <v>347.49</v>
       </c>
       <c r="KJ90" s="3">
-        <v>347.03</v>
+        <v>362.67</v>
       </c>
       <c r="KK90" s="3">
-        <v>347.96</v>
+        <v>371.89</v>
+      </c>
+      <c r="KL90" s="3">
+        <v>361.22</v>
+      </c>
+      <c r="KM90" s="3">
+        <v>339.08</v>
+      </c>
+      <c r="KN90" s="3">
+        <v>334.9</v>
+      </c>
+      <c r="KO90" s="3">
+        <v>328.86</v>
+      </c>
+      <c r="KP90" s="3">
+        <v>348.68</v>
+      </c>
+      <c r="KQ90" s="3">
+        <v>347.71</v>
+      </c>
+      <c r="KR90" s="3">
+        <v>343.49</v>
+      </c>
+      <c r="KS90" s="3">
+        <v>350.52</v>
+      </c>
+      <c r="KT90" s="3">
+        <v>337.47</v>
+      </c>
+      <c r="KU90" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KV90" s="3">
+        <v>370</v>
+      </c>
+      <c r="KW90" s="3">
+        <v>377.13</v>
+      </c>
+      <c r="KX90" s="3">
+        <v>380.48</v>
+      </c>
+      <c r="KY90" s="3">
+        <v>383.39</v>
+      </c>
+      <c r="KZ90" s="3">
+        <v>382.25</v>
+      </c>
+      <c r="LA90" s="3">
+        <v>375.12</v>
       </c>
     </row>
-    <row r="91" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>22</v>
       </c>
@@ -82174,13 +86491,61 @@
         <v>342.56</v>
       </c>
       <c r="KJ91" s="3">
-        <v>341.79</v>
+        <v>355.45</v>
       </c>
       <c r="KK91" s="3">
-        <v>344.04</v>
+        <v>365.22</v>
+      </c>
+      <c r="KL91" s="3">
+        <v>353.73</v>
+      </c>
+      <c r="KM91" s="3">
+        <v>330.52</v>
+      </c>
+      <c r="KN91" s="3">
+        <v>329.93</v>
+      </c>
+      <c r="KO91" s="3">
+        <v>328.8</v>
+      </c>
+      <c r="KP91" s="3">
+        <v>344.92</v>
+      </c>
+      <c r="KQ91" s="3">
+        <v>342.6</v>
+      </c>
+      <c r="KR91" s="3">
+        <v>342.82</v>
+      </c>
+      <c r="KS91" s="3">
+        <v>348.33</v>
+      </c>
+      <c r="KT91" s="3">
+        <v>328.01</v>
+      </c>
+      <c r="KU91" s="3">
+        <v>371.12</v>
+      </c>
+      <c r="KV91" s="3">
+        <v>368.22</v>
+      </c>
+      <c r="KW91" s="3">
+        <v>375.3</v>
+      </c>
+      <c r="KX91" s="3">
+        <v>376.57</v>
+      </c>
+      <c r="KY91" s="3">
+        <v>375.82</v>
+      </c>
+      <c r="KZ91" s="3">
+        <v>375.8</v>
+      </c>
+      <c r="LA91" s="3">
+        <v>371.18</v>
       </c>
     </row>
-    <row r="92" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>22</v>
       </c>
@@ -83067,13 +87432,61 @@
         <v>342.56</v>
       </c>
       <c r="KJ92" s="3">
-        <v>341.79</v>
+        <v>355.45</v>
       </c>
       <c r="KK92" s="3">
-        <v>344.04</v>
+        <v>365.22</v>
+      </c>
+      <c r="KL92" s="3">
+        <v>353.73</v>
+      </c>
+      <c r="KM92" s="3">
+        <v>330.52</v>
+      </c>
+      <c r="KN92" s="3">
+        <v>329.93</v>
+      </c>
+      <c r="KO92" s="3">
+        <v>328.8</v>
+      </c>
+      <c r="KP92" s="3">
+        <v>344.92</v>
+      </c>
+      <c r="KQ92" s="3">
+        <v>342.6</v>
+      </c>
+      <c r="KR92" s="3">
+        <v>342.82</v>
+      </c>
+      <c r="KS92" s="3">
+        <v>348.33</v>
+      </c>
+      <c r="KT92" s="3">
+        <v>328.01</v>
+      </c>
+      <c r="KU92" s="3">
+        <v>371.12</v>
+      </c>
+      <c r="KV92" s="3">
+        <v>368.22</v>
+      </c>
+      <c r="KW92" s="3">
+        <v>375.3</v>
+      </c>
+      <c r="KX92" s="3">
+        <v>376.57</v>
+      </c>
+      <c r="KY92" s="3">
+        <v>375.82</v>
+      </c>
+      <c r="KZ92" s="3">
+        <v>375.8</v>
+      </c>
+      <c r="LA92" s="3">
+        <v>371.18</v>
       </c>
     </row>
-    <row r="93" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>22</v>
       </c>
@@ -83960,13 +88373,61 @@
         <v>143.19999999999999</v>
       </c>
       <c r="KJ93" s="3">
+        <v>173.61</v>
+      </c>
+      <c r="KK93" s="3">
+        <v>186.44</v>
+      </c>
+      <c r="KL93" s="3">
+        <v>207.04</v>
+      </c>
+      <c r="KM93" s="3">
+        <v>218.72</v>
+      </c>
+      <c r="KN93" s="3">
         <v>178.6</v>
       </c>
-      <c r="KK93" s="3">
-        <v>178.64</v>
+      <c r="KO93" s="3">
+        <v>228.36</v>
+      </c>
+      <c r="KP93" s="3">
+        <v>344.92</v>
+      </c>
+      <c r="KQ93" s="3">
+        <v>342.6</v>
+      </c>
+      <c r="KR93" s="3">
+        <v>342.82</v>
+      </c>
+      <c r="KS93" s="3">
+        <v>196.63</v>
+      </c>
+      <c r="KT93" s="3">
+        <v>199.58</v>
+      </c>
+      <c r="KU93" s="3">
+        <v>371.12</v>
+      </c>
+      <c r="KV93" s="3">
+        <v>368.22</v>
+      </c>
+      <c r="KW93" s="3">
+        <v>375.3</v>
+      </c>
+      <c r="KX93" s="3">
+        <v>376.57</v>
+      </c>
+      <c r="KY93" s="3">
+        <v>375.82</v>
+      </c>
+      <c r="KZ93" s="3">
+        <v>375.8</v>
+      </c>
+      <c r="LA93" s="3">
+        <v>188.87</v>
       </c>
     </row>
-    <row r="94" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>22</v>
       </c>
@@ -84853,13 +89314,61 @@
         <v>342.56</v>
       </c>
       <c r="KJ94" s="3">
-        <v>341.79</v>
+        <v>355.45</v>
       </c>
       <c r="KK94" s="3">
-        <v>344.04</v>
+        <v>365.22</v>
+      </c>
+      <c r="KL94" s="3">
+        <v>353.73</v>
+      </c>
+      <c r="KM94" s="3">
+        <v>330.52</v>
+      </c>
+      <c r="KN94" s="3">
+        <v>329.93</v>
+      </c>
+      <c r="KO94" s="3">
+        <v>328.8</v>
+      </c>
+      <c r="KP94" s="3">
+        <v>344.92</v>
+      </c>
+      <c r="KQ94" s="3">
+        <v>342.6</v>
+      </c>
+      <c r="KR94" s="3">
+        <v>342.82</v>
+      </c>
+      <c r="KS94" s="3">
+        <v>348.33</v>
+      </c>
+      <c r="KT94" s="3">
+        <v>328.01</v>
+      </c>
+      <c r="KU94" s="3">
+        <v>371.12</v>
+      </c>
+      <c r="KV94" s="3">
+        <v>368.22</v>
+      </c>
+      <c r="KW94" s="3">
+        <v>375.3</v>
+      </c>
+      <c r="KX94" s="3">
+        <v>376.57</v>
+      </c>
+      <c r="KY94" s="3">
+        <v>375.82</v>
+      </c>
+      <c r="KZ94" s="3">
+        <v>375.8</v>
+      </c>
+      <c r="LA94" s="3">
+        <v>371.18</v>
       </c>
     </row>
-    <row r="95" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>23</v>
       </c>
@@ -85746,13 +90255,61 @@
         <v>327.73</v>
       </c>
       <c r="KJ95" s="3">
-        <v>327.17</v>
+        <v>339.81</v>
       </c>
       <c r="KK95" s="3">
-        <v>329.26</v>
+        <v>348.28</v>
+      </c>
+      <c r="KL95" s="3">
+        <v>338.72</v>
+      </c>
+      <c r="KM95" s="3">
+        <v>319.77</v>
+      </c>
+      <c r="KN95" s="3">
+        <v>328.06</v>
+      </c>
+      <c r="KO95" s="3">
+        <v>323.18</v>
+      </c>
+      <c r="KP95" s="3">
+        <v>335.09</v>
+      </c>
+      <c r="KQ95" s="3">
+        <v>334.95</v>
+      </c>
+      <c r="KR95" s="3">
+        <v>333.88</v>
+      </c>
+      <c r="KS95" s="3">
+        <v>340.14</v>
+      </c>
+      <c r="KT95" s="3">
+        <v>318.22000000000003</v>
+      </c>
+      <c r="KU95" s="3">
+        <v>364.52</v>
+      </c>
+      <c r="KV95" s="3">
+        <v>364.77</v>
+      </c>
+      <c r="KW95" s="3">
+        <v>366.76</v>
+      </c>
+      <c r="KX95" s="3">
+        <v>370.7</v>
+      </c>
+      <c r="KY95" s="3">
+        <v>371.59</v>
+      </c>
+      <c r="KZ95" s="3">
+        <v>368.31</v>
+      </c>
+      <c r="LA95" s="3">
+        <v>363.42</v>
       </c>
     </row>
-    <row r="96" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>23</v>
       </c>
@@ -86639,13 +91196,61 @@
         <v>327.73</v>
       </c>
       <c r="KJ96" s="3">
-        <v>327.17</v>
+        <v>339.81</v>
       </c>
       <c r="KK96" s="3">
-        <v>329.26</v>
+        <v>348.28</v>
+      </c>
+      <c r="KL96" s="3">
+        <v>338.72</v>
+      </c>
+      <c r="KM96" s="3">
+        <v>319.77</v>
+      </c>
+      <c r="KN96" s="3">
+        <v>328.06</v>
+      </c>
+      <c r="KO96" s="3">
+        <v>323.18</v>
+      </c>
+      <c r="KP96" s="3">
+        <v>335.09</v>
+      </c>
+      <c r="KQ96" s="3">
+        <v>334.95</v>
+      </c>
+      <c r="KR96" s="3">
+        <v>333.88</v>
+      </c>
+      <c r="KS96" s="3">
+        <v>340.14</v>
+      </c>
+      <c r="KT96" s="3">
+        <v>318.22000000000003</v>
+      </c>
+      <c r="KU96" s="3">
+        <v>364.52</v>
+      </c>
+      <c r="KV96" s="3">
+        <v>364.77</v>
+      </c>
+      <c r="KW96" s="3">
+        <v>366.76</v>
+      </c>
+      <c r="KX96" s="3">
+        <v>370.7</v>
+      </c>
+      <c r="KY96" s="3">
+        <v>371.59</v>
+      </c>
+      <c r="KZ96" s="3">
+        <v>368.31</v>
+      </c>
+      <c r="LA96" s="3">
+        <v>363.42</v>
       </c>
     </row>
-    <row r="97" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>23</v>
       </c>
@@ -87532,13 +92137,61 @@
         <v>142.94999999999999</v>
       </c>
       <c r="KJ97" s="3">
-        <v>176.66</v>
+        <v>164.88</v>
       </c>
       <c r="KK97" s="3">
-        <v>178.61</v>
+        <v>186.44</v>
+      </c>
+      <c r="KL97" s="3">
+        <v>210.79</v>
+      </c>
+      <c r="KM97" s="3">
+        <v>222.89</v>
+      </c>
+      <c r="KN97" s="3">
+        <v>185.78</v>
+      </c>
+      <c r="KO97" s="3">
+        <v>219.25</v>
+      </c>
+      <c r="KP97" s="3">
+        <v>335.09</v>
+      </c>
+      <c r="KQ97" s="3">
+        <v>334.95</v>
+      </c>
+      <c r="KR97" s="3">
+        <v>333.88</v>
+      </c>
+      <c r="KS97" s="3">
+        <v>194.96</v>
+      </c>
+      <c r="KT97" s="3">
+        <v>198.64</v>
+      </c>
+      <c r="KU97" s="3">
+        <v>364.52</v>
+      </c>
+      <c r="KV97" s="3">
+        <v>364.77</v>
+      </c>
+      <c r="KW97" s="3">
+        <v>366.75</v>
+      </c>
+      <c r="KX97" s="3">
+        <v>370.7</v>
+      </c>
+      <c r="KY97" s="3">
+        <v>371.58</v>
+      </c>
+      <c r="KZ97" s="3">
+        <v>229.06</v>
+      </c>
+      <c r="LA97" s="3">
+        <v>173.81</v>
       </c>
     </row>
-    <row r="98" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:313" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>23</v>
       </c>
@@ -88425,10 +93078,58 @@
         <v>327.73</v>
       </c>
       <c r="KJ98" s="3">
-        <v>327.17</v>
+        <v>339.81</v>
       </c>
       <c r="KK98" s="3">
-        <v>329.26</v>
+        <v>350.78</v>
+      </c>
+      <c r="KL98" s="3">
+        <v>338.72</v>
+      </c>
+      <c r="KM98" s="3">
+        <v>319.77</v>
+      </c>
+      <c r="KN98" s="3">
+        <v>328.06</v>
+      </c>
+      <c r="KO98" s="3">
+        <v>323.18</v>
+      </c>
+      <c r="KP98" s="3">
+        <v>335.09</v>
+      </c>
+      <c r="KQ98" s="3">
+        <v>334.95</v>
+      </c>
+      <c r="KR98" s="3">
+        <v>333.88</v>
+      </c>
+      <c r="KS98" s="3">
+        <v>340.14</v>
+      </c>
+      <c r="KT98" s="3">
+        <v>318.22000000000003</v>
+      </c>
+      <c r="KU98" s="3">
+        <v>364.52</v>
+      </c>
+      <c r="KV98" s="3">
+        <v>364.77</v>
+      </c>
+      <c r="KW98" s="3">
+        <v>366.76</v>
+      </c>
+      <c r="KX98" s="3">
+        <v>370.7</v>
+      </c>
+      <c r="KY98" s="3">
+        <v>371.59</v>
+      </c>
+      <c r="KZ98" s="3">
+        <v>368.31</v>
+      </c>
+      <c r="LA98" s="3">
+        <v>363.42</v>
       </c>
     </row>
   </sheetData>
